--- a/Grid_5x5/Solutions/Solution_NDP_S069/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S069/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2714,7 +2714,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>1.0590535714285716</v>
+        <v>1.0590535714285718</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -8131,7 +8131,7 @@
         <v>70</v>
       </c>
       <c r="K7" s="72">
-        <v>29.384</v>
+        <v>29.383999999999997</v>
       </c>
       <c r="L7" s="72">
         <v>76.225999999999999</v>
@@ -8178,13 +8178,13 @@
         <v>7.8749999999999991</v>
       </c>
       <c r="L8" s="72">
-        <v>33.086000000000006</v>
+        <v>33.085999999999999</v>
       </c>
       <c r="M8" s="72">
         <v>72.524000000000001</v>
       </c>
       <c r="N8" s="72">
-        <v>40.961000000000006</v>
+        <v>40.960999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -8225,7 +8225,7 @@
         <v>26.722000000000001</v>
       </c>
       <c r="M9" s="72">
-        <v>14.239000000000001</v>
+        <v>14.238999999999999</v>
       </c>
       <c r="N9" s="72">
         <v>33.978000000000002</v>
@@ -9687,10 +9687,10 @@
         <v>70</v>
       </c>
       <c r="K44" s="72">
-        <v>26.824999999999999</v>
+        <v>26.824999999999996</v>
       </c>
       <c r="L44" s="72">
-        <v>51.254999999999995</v>
+        <v>51.255000000000003</v>
       </c>
       <c r="M44" s="72">
         <v>27.936</v>
@@ -9737,7 +9737,7 @@
         <v>39.31</v>
       </c>
       <c r="M45" s="72">
-        <v>38.769999999999996</v>
+        <v>38.770000000000003</v>
       </c>
       <c r="N45" s="72">
         <v>65.509</v>
@@ -9851,7 +9851,7 @@
         <v>70</v>
       </c>
       <c r="K48" s="72">
-        <v>28.005000000000003</v>
+        <v>28.004999999999999</v>
       </c>
       <c r="L48" s="72">
         <v>0</v>
@@ -9860,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="72">
-        <v>28.005000000000003</v>
+        <v>28.004999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -9895,10 +9895,10 @@
         <v>70</v>
       </c>
       <c r="K49" s="72">
-        <v>40.570000000000007</v>
+        <v>40.57</v>
       </c>
       <c r="L49" s="72">
-        <v>23.837999999999994</v>
+        <v>23.838000000000001</v>
       </c>
       <c r="M49" s="72">
         <v>4.1669999999999998</v>
@@ -11243,7 +11243,7 @@
         <v>70</v>
       </c>
       <c r="K81" s="72">
-        <v>25.994</v>
+        <v>25.994000000000003</v>
       </c>
       <c r="L81" s="72">
         <v>41.680999999999997</v>
@@ -11290,13 +11290,13 @@
         <v>5.1440000000000001</v>
       </c>
       <c r="L82" s="72">
-        <v>34.861000000000004</v>
+        <v>34.860999999999997</v>
       </c>
       <c r="M82" s="72">
         <v>32.814</v>
       </c>
       <c r="N82" s="72">
-        <v>40.005000000000003</v>
+        <v>40.004999999999995</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -11334,7 +11334,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="72">
-        <v>40.005000000000003</v>
+        <v>40.004999999999995</v>
       </c>
       <c r="N83" s="72">
         <v>0</v>
@@ -11407,10 +11407,10 @@
         <v>70</v>
       </c>
       <c r="K85" s="72">
-        <v>25.715999999999998</v>
+        <v>25.716000000000001</v>
       </c>
       <c r="L85" s="72">
-        <v>16.627000000000006</v>
+        <v>16.627000000000002</v>
       </c>
       <c r="M85" s="72">
         <v>5.0140000000000002</v>
@@ -12755,7 +12755,7 @@
         <v>70</v>
       </c>
       <c r="K117" s="72">
-        <v>12.655999999999999</v>
+        <v>12.656000000000001</v>
       </c>
       <c r="L117" s="72">
         <v>44.529000000000003</v>
@@ -12799,16 +12799,16 @@
         <v>70</v>
       </c>
       <c r="K118" s="72">
-        <v>27.797000000000004</v>
+        <v>27.797000000000001</v>
       </c>
       <c r="L118" s="72">
-        <v>33.847999999999992</v>
+        <v>33.848000000000013</v>
       </c>
       <c r="M118" s="72">
-        <v>23.336999999999996</v>
+        <v>23.337000000000003</v>
       </c>
       <c r="N118" s="72">
-        <v>61.644999999999996</v>
+        <v>61.64500000000001</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -12846,7 +12846,7 @@
         <v>0</v>
       </c>
       <c r="M119" s="72">
-        <v>61.644999999999996</v>
+        <v>61.64500000000001</v>
       </c>
       <c r="N119" s="72">
         <v>0</v>
@@ -12922,13 +12922,13 @@
         <v>9.2210000000000001</v>
       </c>
       <c r="L121" s="72">
-        <v>15.815000000000001</v>
+        <v>15.814999999999998</v>
       </c>
       <c r="M121" s="72">
         <v>8.74</v>
       </c>
       <c r="N121" s="72">
-        <v>25.036000000000001</v>
+        <v>25.035999999999998</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -12966,13 +12966,13 @@
         <v>18.727</v>
       </c>
       <c r="L122" s="72">
-        <v>17.235999999999994</v>
+        <v>17.236000000000001</v>
       </c>
       <c r="M122" s="72">
         <v>7.8000000000000007</v>
       </c>
       <c r="N122" s="72">
-        <v>35.962999999999994</v>
+        <v>35.963000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -14267,16 +14267,16 @@
         <v>70</v>
       </c>
       <c r="K153" s="72">
-        <v>12.238999999999999</v>
+        <v>12.239000000000001</v>
       </c>
       <c r="L153" s="72">
-        <v>20.695999999999998</v>
+        <v>20.696000000000002</v>
       </c>
       <c r="M153" s="72">
-        <v>13.536</v>
+        <v>13.536000000000001</v>
       </c>
       <c r="N153" s="72">
-        <v>32.934999999999995</v>
+        <v>32.935000000000002</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -14317,7 +14317,7 @@
         <v>10.909000000000002</v>
       </c>
       <c r="M154" s="72">
-        <v>22.026</v>
+        <v>22.025999999999996</v>
       </c>
       <c r="N154" s="72">
         <v>17.810000000000002</v>
@@ -14387,7 +14387,7 @@
         <v>70</v>
       </c>
       <c r="K156" s="72">
-        <v>43.48</v>
+        <v>43.480000000000004</v>
       </c>
       <c r="L156" s="72">
         <v>0</v>
@@ -14396,7 +14396,7 @@
         <v>0</v>
       </c>
       <c r="N156" s="72">
-        <v>43.48</v>
+        <v>43.480000000000004</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -15943,16 +15943,16 @@
         <v>70</v>
       </c>
       <c r="K193" s="72">
-        <v>26.184000000000001</v>
+        <v>26.183999999999997</v>
       </c>
       <c r="L193" s="72">
-        <v>23.966999999999995</v>
+        <v>23.967000000000006</v>
       </c>
       <c r="M193" s="72">
-        <v>5.0750000000000002</v>
+        <v>5.0749999999999993</v>
       </c>
       <c r="N193" s="72">
-        <v>50.150999999999996</v>
+        <v>50.151000000000003</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
@@ -15990,13 +15990,13 @@
         <v>17.493000000000002</v>
       </c>
       <c r="L194" s="72">
-        <v>35.064999999999991</v>
+        <v>35.064999999999998</v>
       </c>
       <c r="M194" s="72">
-        <v>15.086</v>
+        <v>15.085999999999999</v>
       </c>
       <c r="N194" s="72">
-        <v>52.557999999999993</v>
+        <v>52.558</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -16031,16 +16031,16 @@
         <v>70</v>
       </c>
       <c r="K195" s="72">
-        <v>11.941000000000001</v>
+        <v>11.941000000000003</v>
       </c>
       <c r="L195" s="72">
-        <v>35.819999999999993</v>
+        <v>35.82</v>
       </c>
       <c r="M195" s="72">
         <v>16.738</v>
       </c>
       <c r="N195" s="72">
-        <v>47.760999999999996</v>
+        <v>47.761000000000003</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
@@ -16081,7 +16081,7 @@
         <v>25.797000000000001</v>
       </c>
       <c r="M196" s="72">
-        <v>21.963999999999999</v>
+        <v>21.964000000000002</v>
       </c>
       <c r="N196" s="72">
         <v>35.899000000000001</v>
@@ -17455,10 +17455,10 @@
         <v>70</v>
       </c>
       <c r="K229" s="72">
-        <v>38.094999999999999</v>
+        <v>38.095000000000006</v>
       </c>
       <c r="L229" s="72">
-        <v>26.58</v>
+        <v>26.579999999999991</v>
       </c>
       <c r="M229" s="72">
         <v>8.2550000000000008</v>
@@ -17499,7 +17499,7 @@
         <v>70</v>
       </c>
       <c r="K230" s="72">
-        <v>7.7030000000000003</v>
+        <v>7.7029999999999994</v>
       </c>
       <c r="L230" s="72">
         <v>28.846</v>
@@ -17590,13 +17590,13 @@
         <v>2.2109999999999999</v>
       </c>
       <c r="L232" s="72">
-        <v>13.986000000000002</v>
+        <v>13.985999999999999</v>
       </c>
       <c r="M232" s="72">
         <v>19.82</v>
       </c>
       <c r="N232" s="72">
-        <v>16.197000000000003</v>
+        <v>16.196999999999999</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
@@ -17634,7 +17634,7 @@
         <v>0</v>
       </c>
       <c r="M233" s="72">
-        <v>16.197000000000003</v>
+        <v>16.196999999999999</v>
       </c>
       <c r="N233" s="72">
         <v>0</v>
@@ -18894,7 +18894,7 @@
         <v>0</v>
       </c>
       <c r="M263" s="72">
-        <v>55.940999999999995</v>
+        <v>55.941000000000003</v>
       </c>
       <c r="N263" s="72">
         <v>0</v>
@@ -18967,16 +18967,16 @@
         <v>70</v>
       </c>
       <c r="K265" s="72">
-        <v>50.183</v>
+        <v>50.183000000000007</v>
       </c>
       <c r="L265" s="72">
-        <v>33.321999999999996</v>
+        <v>33.322000000000003</v>
       </c>
       <c r="M265" s="72">
-        <v>2.8020000000000005</v>
+        <v>2.802</v>
       </c>
       <c r="N265" s="72">
-        <v>83.504999999999995</v>
+        <v>83.50500000000001</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
@@ -19011,16 +19011,16 @@
         <v>70</v>
       </c>
       <c r="K266" s="72">
-        <v>20.004999999999999</v>
+        <v>20.005000000000003</v>
       </c>
       <c r="L266" s="72">
-        <v>34.677999999999997</v>
+        <v>34.678000000000004</v>
       </c>
       <c r="M266" s="72">
         <v>48.826999999999998</v>
       </c>
       <c r="N266" s="72">
-        <v>54.682999999999993</v>
+        <v>54.683000000000007</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
@@ -19061,7 +19061,7 @@
         <v>28.544999999999995</v>
       </c>
       <c r="M267" s="72">
-        <v>26.137999999999998</v>
+        <v>26.138000000000002</v>
       </c>
       <c r="N267" s="72">
         <v>60.269999999999996</v>
@@ -19102,13 +19102,13 @@
         <v>10.119</v>
       </c>
       <c r="L268" s="72">
-        <v>27.427000000000007</v>
+        <v>27.427</v>
       </c>
       <c r="M268" s="72">
         <v>32.843000000000004</v>
       </c>
       <c r="N268" s="72">
-        <v>37.546000000000006</v>
+        <v>37.545999999999999</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
@@ -20315,13 +20315,13 @@
         <v>70</v>
       </c>
       <c r="K297" s="72">
-        <v>33.053000000000004</v>
+        <v>33.052999999999997</v>
       </c>
       <c r="L297" s="72">
-        <v>39.208999999999996</v>
+        <v>39.209000000000003</v>
       </c>
       <c r="M297" s="72">
-        <v>75.837999999999994</v>
+        <v>75.838000000000008</v>
       </c>
       <c r="N297" s="72">
         <v>72.262</v>
@@ -20362,13 +20362,13 @@
         <v>16.733000000000001</v>
       </c>
       <c r="L298" s="72">
-        <v>48.343000000000004</v>
+        <v>48.342999999999989</v>
       </c>
       <c r="M298" s="72">
         <v>23.919</v>
       </c>
       <c r="N298" s="72">
-        <v>65.076000000000008</v>
+        <v>65.075999999999993</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.25">
@@ -20406,7 +20406,7 @@
         <v>0</v>
       </c>
       <c r="M299" s="72">
-        <v>65.076000000000008</v>
+        <v>65.075999999999993</v>
       </c>
       <c r="N299" s="72">
         <v>0</v>
@@ -20435,7 +20435,7 @@
         <v>70</v>
       </c>
       <c r="K300" s="72">
-        <v>43</v>
+        <v>43.000000000000007</v>
       </c>
       <c r="L300" s="72">
         <v>0</v>
@@ -20444,7 +20444,7 @@
         <v>0</v>
       </c>
       <c r="N300" s="72">
-        <v>43</v>
+        <v>43.000000000000007</v>
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.25">
@@ -20479,10 +20479,10 @@
         <v>70</v>
       </c>
       <c r="K301" s="72">
-        <v>52.785000000000011</v>
+        <v>52.785000000000004</v>
       </c>
       <c r="L301" s="72">
-        <v>5.5289999999999964</v>
+        <v>5.5290000000000035</v>
       </c>
       <c r="M301" s="72">
         <v>37.471000000000004</v>
@@ -21739,13 +21739,13 @@
         <v>70</v>
       </c>
       <c r="K331" s="72">
-        <v>55.426999999999992</v>
+        <v>55.427</v>
       </c>
       <c r="L331" s="72">
         <v>92.449000000000012</v>
       </c>
       <c r="M331" s="72">
-        <v>95.353999999999999</v>
+        <v>95.354000000000013</v>
       </c>
       <c r="N331" s="72">
         <v>147.876</v>
@@ -21833,7 +21833,7 @@
         <v>68.420999999999992</v>
       </c>
       <c r="M333" s="72">
-        <v>33.956000000000003</v>
+        <v>33.955999999999996</v>
       </c>
       <c r="N333" s="72">
         <v>103.005</v>
@@ -21874,13 +21874,13 @@
         <v>140.077</v>
       </c>
       <c r="L334" s="72">
-        <v>31.71599999999998</v>
+        <v>31.716000000000008</v>
       </c>
       <c r="M334" s="72">
         <v>71.289000000000001</v>
       </c>
       <c r="N334" s="72">
-        <v>171.79299999999998</v>
+        <v>171.79300000000001</v>
       </c>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.25">
@@ -21918,7 +21918,7 @@
         <v>0</v>
       </c>
       <c r="M335" s="72">
-        <v>171.79299999999998</v>
+        <v>171.79300000000001</v>
       </c>
       <c r="N335" s="72">
         <v>0</v>
@@ -23459,7 +23459,7 @@
         <v>70</v>
       </c>
       <c r="K372" s="72">
-        <v>108.92399999999998</v>
+        <v>108.92399999999999</v>
       </c>
       <c r="L372" s="72">
         <v>0</v>
@@ -23468,7 +23468,7 @@
         <v>0</v>
       </c>
       <c r="N372" s="72">
-        <v>108.92399999999998</v>
+        <v>108.92399999999999</v>
       </c>
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.25">
@@ -23547,16 +23547,16 @@
         <v>70</v>
       </c>
       <c r="K374" s="72">
-        <v>19.218</v>
+        <v>19.217999999999996</v>
       </c>
       <c r="L374" s="72">
-        <v>34.265000000000001</v>
+        <v>34.265000000000008</v>
       </c>
       <c r="M374" s="72">
         <v>15.652000000000001</v>
       </c>
       <c r="N374" s="72">
-        <v>53.482999999999997</v>
+        <v>53.483000000000004</v>
       </c>
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.25">
@@ -25059,16 +25059,16 @@
         <v>70</v>
       </c>
       <c r="K410" s="72">
-        <v>20.412000000000003</v>
+        <v>20.411999999999999</v>
       </c>
       <c r="L410" s="72">
-        <v>99.575000000000017</v>
+        <v>99.574999999999989</v>
       </c>
       <c r="M410" s="72">
         <v>39.983000000000004</v>
       </c>
       <c r="N410" s="72">
-        <v>119.98700000000002</v>
+        <v>119.98699999999999</v>
       </c>
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.25">
@@ -25147,10 +25147,10 @@
         <v>70</v>
       </c>
       <c r="K412" s="72">
-        <v>62.078999999999994</v>
+        <v>62.079000000000001</v>
       </c>
       <c r="L412" s="72">
-        <v>45.690000000000012</v>
+        <v>45.690000000000005</v>
       </c>
       <c r="M412" s="72">
         <v>78.578000000000003</v>
@@ -26460,7 +26460,7 @@
         <v>25.454999999999998</v>
       </c>
       <c r="N443" s="72">
-        <v>191.41299999999998</v>
+        <v>191.41300000000001</v>
       </c>
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.25">
@@ -26495,7 +26495,7 @@
         <v>70</v>
       </c>
       <c r="K444" s="72">
-        <v>116.63</v>
+        <v>116.63000000000001</v>
       </c>
       <c r="L444" s="72">
         <v>155.19400000000002</v>
@@ -26545,7 +26545,7 @@
         <v>203.721</v>
       </c>
       <c r="M445" s="72">
-        <v>68.103000000000009</v>
+        <v>68.102999999999994</v>
       </c>
       <c r="N445" s="72">
         <v>230.67099999999999</v>
@@ -26615,7 +26615,7 @@
         <v>70</v>
       </c>
       <c r="K447" s="72">
-        <v>147.34299999999999</v>
+        <v>147.34300000000002</v>
       </c>
       <c r="L447" s="72">
         <v>0</v>
@@ -26624,7 +26624,7 @@
         <v>0</v>
       </c>
       <c r="N447" s="72">
-        <v>147.34299999999999</v>
+        <v>147.34300000000002</v>
       </c>
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.25">
@@ -26668,7 +26668,7 @@
         <v>10.324000000000002</v>
       </c>
       <c r="N448" s="72">
-        <v>168.80199999999999</v>
+        <v>168.80200000000002</v>
       </c>
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.25">
@@ -26703,7 +26703,7 @@
         <v>70</v>
       </c>
       <c r="K449" s="72">
-        <v>32.682999999999993</v>
+        <v>32.683</v>
       </c>
       <c r="L449" s="72">
         <v>128.82100000000003</v>
@@ -26756,7 +26756,7 @@
         <v>22.721</v>
       </c>
       <c r="N450" s="72">
-        <v>181.542</v>
+        <v>181.54200000000003</v>
       </c>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.25">
@@ -26791,10 +26791,10 @@
         <v>70</v>
       </c>
       <c r="K451" s="72">
-        <v>63.126999999999995</v>
+        <v>63.127000000000002</v>
       </c>
       <c r="L451" s="72">
-        <v>102.96400000000001</v>
+        <v>102.964</v>
       </c>
       <c r="M451" s="72">
         <v>78.578000000000003</v>
@@ -26882,13 +26882,13 @@
         <v>17.954000000000001</v>
       </c>
       <c r="L453" s="72">
-        <v>165.27200000000005</v>
+        <v>165.27199999999999</v>
       </c>
       <c r="M453" s="72">
         <v>56.651000000000003</v>
       </c>
       <c r="N453" s="72">
-        <v>183.22600000000006</v>
+        <v>183.226</v>
       </c>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.25">
@@ -26926,13 +26926,13 @@
         <v>20.968</v>
       </c>
       <c r="L454" s="72">
-        <v>152.62899999999999</v>
+        <v>152.62900000000005</v>
       </c>
       <c r="M454" s="72">
         <v>30.597000000000001</v>
       </c>
       <c r="N454" s="72">
-        <v>173.59699999999998</v>
+        <v>173.59700000000004</v>
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.25">
@@ -26970,7 +26970,7 @@
         <v>0</v>
       </c>
       <c r="M455" s="72">
-        <v>173.59699999999998</v>
+        <v>173.59700000000004</v>
       </c>
       <c r="N455" s="72">
         <v>0</v>
@@ -27046,13 +27046,13 @@
         <v>32.492000000000004</v>
       </c>
       <c r="L457" s="72">
-        <v>124.95599999999997</v>
+        <v>124.956</v>
       </c>
       <c r="M457" s="72">
         <v>10.302</v>
       </c>
       <c r="N457" s="72">
-        <v>157.44799999999998</v>
+        <v>157.44800000000001</v>
       </c>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.25">
@@ -27131,16 +27131,16 @@
         <v>70</v>
       </c>
       <c r="K459" s="72">
-        <v>44.651000000000003</v>
+        <v>44.650999999999996</v>
       </c>
       <c r="L459" s="72">
-        <v>123.91900000000001</v>
+        <v>123.919</v>
       </c>
       <c r="M459" s="72">
         <v>38.933000000000007</v>
       </c>
       <c r="N459" s="72">
-        <v>168.57000000000002</v>
+        <v>168.57</v>
       </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.25">
@@ -30596,7 +30596,7 @@
         <v>24.384999999999998</v>
       </c>
       <c r="N540" s="72">
-        <v>176.38400000000001</v>
+        <v>176.38399999999999</v>
       </c>
     </row>
     <row r="541" spans="1:14" x14ac:dyDescent="0.25">
@@ -30634,13 +30634,13 @@
         <v>16.112000000000002</v>
       </c>
       <c r="L541" s="72">
-        <v>47.115000000000002</v>
+        <v>47.114999999999995</v>
       </c>
       <c r="M541" s="72">
         <v>129.26900000000001</v>
       </c>
       <c r="N541" s="72">
-        <v>63.227000000000004</v>
+        <v>63.226999999999997</v>
       </c>
     </row>
     <row r="542" spans="1:14" x14ac:dyDescent="0.25">
@@ -30675,7 +30675,7 @@
         <v>70</v>
       </c>
       <c r="K542" s="72">
-        <v>13.94</v>
+        <v>13.940000000000001</v>
       </c>
       <c r="L542" s="72">
         <v>43.41</v>
@@ -30719,16 +30719,16 @@
         <v>70</v>
       </c>
       <c r="K543" s="72">
-        <v>17.518999999999998</v>
+        <v>17.519000000000002</v>
       </c>
       <c r="L543" s="72">
-        <v>41.980000000000004</v>
+        <v>41.97999999999999</v>
       </c>
       <c r="M543" s="72">
-        <v>15.369999999999997</v>
+        <v>15.370000000000001</v>
       </c>
       <c r="N543" s="72">
-        <v>59.499000000000002</v>
+        <v>59.498999999999995</v>
       </c>
     </row>
     <row r="544" spans="1:14" x14ac:dyDescent="0.25">
@@ -30769,7 +30769,7 @@
         <v>36.113</v>
       </c>
       <c r="M544" s="72">
-        <v>23.386000000000003</v>
+        <v>23.385999999999999</v>
       </c>
       <c r="N544" s="72">
         <v>38.639000000000003</v>
@@ -30930,13 +30930,13 @@
         <v>57.409000000000006</v>
       </c>
       <c r="L548" s="72">
-        <v>52.266000000000005</v>
+        <v>52.265999999999991</v>
       </c>
       <c r="M548" s="72">
-        <v>44.721000000000004</v>
+        <v>44.720999999999997</v>
       </c>
       <c r="N548" s="72">
-        <v>109.67500000000001</v>
+        <v>109.675</v>
       </c>
     </row>
     <row r="549" spans="1:14" x14ac:dyDescent="0.25">
@@ -30971,10 +30971,10 @@
         <v>70</v>
       </c>
       <c r="K549" s="72">
-        <v>70.92</v>
+        <v>70.920000000000016</v>
       </c>
       <c r="L549" s="72">
-        <v>81.563000000000002</v>
+        <v>81.562999999999988</v>
       </c>
       <c r="M549" s="72">
         <v>28.112000000000002</v>
@@ -31059,7 +31059,7 @@
         <v>70</v>
       </c>
       <c r="K551" s="72">
-        <v>7.9560000000000004</v>
+        <v>7.9559999999999995</v>
       </c>
       <c r="L551" s="72">
         <v>37.051999999999992</v>
@@ -31103,10 +31103,10 @@
         <v>70</v>
       </c>
       <c r="K552" s="72">
-        <v>21.500999999999998</v>
+        <v>21.501000000000005</v>
       </c>
       <c r="L552" s="72">
-        <v>26.653000000000006</v>
+        <v>26.652999999999999</v>
       </c>
       <c r="M552" s="72">
         <v>18.354999999999997</v>
@@ -31150,13 +31150,13 @@
         <v>2.7389999999999999</v>
       </c>
       <c r="L553" s="72">
-        <v>25.798000000000002</v>
+        <v>25.798000000000005</v>
       </c>
       <c r="M553" s="72">
         <v>22.356000000000002</v>
       </c>
       <c r="N553" s="72">
-        <v>28.537000000000003</v>
+        <v>28.537000000000006</v>
       </c>
     </row>
     <row r="554" spans="1:14" x14ac:dyDescent="0.25">
@@ -31223,7 +31223,7 @@
         <v>70</v>
       </c>
       <c r="K555" s="72">
-        <v>34.161999999999992</v>
+        <v>34.161999999999999</v>
       </c>
       <c r="L555" s="72">
         <v>0</v>
@@ -31232,7 +31232,7 @@
         <v>0</v>
       </c>
       <c r="N555" s="72">
-        <v>34.161999999999992</v>
+        <v>34.161999999999999</v>
       </c>
     </row>
     <row r="556" spans="1:14" x14ac:dyDescent="0.25">
@@ -31267,16 +31267,16 @@
         <v>70</v>
       </c>
       <c r="K556" s="72">
-        <v>29.751999999999999</v>
+        <v>29.752000000000002</v>
       </c>
       <c r="L556" s="72">
-        <v>30.486000000000001</v>
+        <v>30.486000000000004</v>
       </c>
       <c r="M556" s="72">
         <v>3.6760000000000002</v>
       </c>
       <c r="N556" s="72">
-        <v>60.238</v>
+        <v>60.238000000000007</v>
       </c>
     </row>
     <row r="557" spans="1:14" x14ac:dyDescent="0.25">
@@ -31311,13 +31311,13 @@
         <v>70</v>
       </c>
       <c r="K557" s="72">
-        <v>26.962</v>
+        <v>26.961999999999996</v>
       </c>
       <c r="L557" s="72">
-        <v>47.807000000000002</v>
+        <v>47.807000000000009</v>
       </c>
       <c r="M557" s="72">
-        <v>12.430999999999999</v>
+        <v>12.431000000000001</v>
       </c>
       <c r="N557" s="72">
         <v>74.769000000000005</v>
@@ -34811,16 +34811,16 @@
         <v>70</v>
       </c>
       <c r="K639" s="72">
-        <v>47.09</v>
+        <v>47.089999999999996</v>
       </c>
       <c r="L639" s="72">
-        <v>187.76300000000001</v>
+        <v>187.76300000000003</v>
       </c>
       <c r="M639" s="72">
         <v>43.980999999999995</v>
       </c>
       <c r="N639" s="72">
-        <v>234.85300000000001</v>
+        <v>234.85300000000004</v>
       </c>
     </row>
     <row r="640" spans="1:14" x14ac:dyDescent="0.25">
@@ -34899,7 +34899,7 @@
         <v>70</v>
       </c>
       <c r="K641" s="72">
-        <v>51.174000000000007</v>
+        <v>51.173999999999999</v>
       </c>
       <c r="L641" s="72">
         <v>72.744</v>
@@ -34987,16 +34987,16 @@
         <v>70</v>
       </c>
       <c r="K643" s="72">
-        <v>25.452000000000002</v>
+        <v>25.451999999999998</v>
       </c>
       <c r="L643" s="72">
-        <v>101.387</v>
+        <v>101.38700000000001</v>
       </c>
       <c r="M643" s="72">
         <v>80.246000000000009</v>
       </c>
       <c r="N643" s="72">
-        <v>126.839</v>
+        <v>126.83900000000001</v>
       </c>
     </row>
     <row r="644" spans="1:14" x14ac:dyDescent="0.25">
@@ -35034,7 +35034,7 @@
         <v>0</v>
       </c>
       <c r="M644" s="72">
-        <v>126.839</v>
+        <v>126.83900000000001</v>
       </c>
       <c r="N644" s="72">
         <v>0</v>
@@ -35107,10 +35107,10 @@
         <v>70</v>
       </c>
       <c r="K646" s="72">
-        <v>98.425000000000011</v>
+        <v>98.424999999999997</v>
       </c>
       <c r="L646" s="72">
-        <v>83.384999999999991</v>
+        <v>83.385000000000005</v>
       </c>
       <c r="M646" s="72">
         <v>4.6310000000000002</v>
@@ -35151,16 +35151,16 @@
         <v>70</v>
       </c>
       <c r="K647" s="72">
-        <v>23.874000000000002</v>
+        <v>23.873999999999999</v>
       </c>
       <c r="L647" s="72">
-        <v>125.37</v>
+        <v>125.37000000000003</v>
       </c>
       <c r="M647" s="72">
         <v>56.44</v>
       </c>
       <c r="N647" s="72">
-        <v>149.244</v>
+        <v>149.24400000000003</v>
       </c>
     </row>
     <row r="648" spans="1:14" x14ac:dyDescent="0.25">
@@ -37206,13 +37206,13 @@
         <v>30.554000000000002</v>
       </c>
       <c r="L695" s="72">
-        <v>99.634999999999991</v>
+        <v>99.635000000000019</v>
       </c>
       <c r="M695" s="72">
         <v>22.398</v>
       </c>
       <c r="N695" s="72">
-        <v>130.18899999999999</v>
+        <v>130.18900000000002</v>
       </c>
     </row>
     <row r="696" spans="1:14" x14ac:dyDescent="0.25">
@@ -37294,13 +37294,13 @@
         <v>5.7370000000000001</v>
       </c>
       <c r="L697" s="72">
-        <v>55.142000000000003</v>
+        <v>55.141999999999996</v>
       </c>
       <c r="M697" s="72">
         <v>70.811999999999998</v>
       </c>
       <c r="N697" s="72">
-        <v>60.879000000000005</v>
+        <v>60.878999999999998</v>
       </c>
     </row>
     <row r="698" spans="1:14" x14ac:dyDescent="0.25">
@@ -37338,7 +37338,7 @@
         <v>0</v>
       </c>
       <c r="M698" s="72">
-        <v>60.879000000000005</v>
+        <v>60.878999999999998</v>
       </c>
       <c r="N698" s="72">
         <v>0</v>
@@ -37411,16 +37411,16 @@
         <v>70</v>
       </c>
       <c r="K700" s="72">
-        <v>82.821000000000012</v>
+        <v>82.820999999999998</v>
       </c>
       <c r="L700" s="72">
-        <v>79.287999999999968</v>
+        <v>79.288000000000011</v>
       </c>
       <c r="M700" s="72">
         <v>23.178000000000001</v>
       </c>
       <c r="N700" s="72">
-        <v>162.10899999999998</v>
+        <v>162.10900000000001</v>
       </c>
     </row>
     <row r="701" spans="1:14" x14ac:dyDescent="0.25">
@@ -37455,7 +37455,7 @@
         <v>70</v>
       </c>
       <c r="K701" s="72">
-        <v>23.071000000000002</v>
+        <v>23.070999999999998</v>
       </c>
       <c r="L701" s="72">
         <v>129.98400000000001</v>
@@ -37549,7 +37549,7 @@
         <v>46.758999999999993</v>
       </c>
       <c r="M703" s="72">
-        <v>115.51</v>
+        <v>115.50999999999999</v>
       </c>
       <c r="N703" s="72">
         <v>74.38</v>
@@ -39513,7 +39513,7 @@
         <v>44.252000000000002</v>
       </c>
       <c r="M749" s="72">
-        <v>78.134000000000015</v>
+        <v>78.134</v>
       </c>
       <c r="N749" s="72">
         <v>77.947000000000003</v>
@@ -39627,13 +39627,13 @@
         <v>70</v>
       </c>
       <c r="K752" s="72">
-        <v>77.018999999999991</v>
+        <v>77.019000000000005</v>
       </c>
       <c r="L752" s="72">
-        <v>40.869000000000014</v>
+        <v>40.869</v>
       </c>
       <c r="M752" s="72">
-        <v>29.254000000000001</v>
+        <v>29.253999999999998</v>
       </c>
       <c r="N752" s="72">
         <v>117.88800000000001</v>
@@ -39718,13 +39718,13 @@
         <v>30.18</v>
       </c>
       <c r="L754" s="72">
-        <v>46.315999999999995</v>
+        <v>46.31600000000001</v>
       </c>
       <c r="M754" s="72">
         <v>78.254999999999995</v>
       </c>
       <c r="N754" s="72">
-        <v>76.495999999999995</v>
+        <v>76.496000000000009</v>
       </c>
     </row>
     <row r="755" spans="1:14" x14ac:dyDescent="0.25">
@@ -39759,10 +39759,10 @@
         <v>70</v>
       </c>
       <c r="K755" s="72">
-        <v>79.957000000000008</v>
+        <v>79.957000000000022</v>
       </c>
       <c r="L755" s="72">
-        <v>56.523999999999987</v>
+        <v>56.523999999999972</v>
       </c>
       <c r="M755" s="72">
         <v>19.972000000000001</v>
@@ -39970,13 +39970,13 @@
         <v>36.988</v>
       </c>
       <c r="L760" s="72">
-        <v>66.206999999999994</v>
+        <v>66.207000000000008</v>
       </c>
       <c r="M760" s="72">
         <v>46.141999999999996</v>
       </c>
       <c r="N760" s="72">
-        <v>103.19499999999999</v>
+        <v>103.19500000000001</v>
       </c>
     </row>
     <row r="761" spans="1:14" x14ac:dyDescent="0.25">
@@ -40017,7 +40017,7 @@
         <v>32.839999999999996</v>
       </c>
       <c r="M761" s="72">
-        <v>70.355000000000004</v>
+        <v>70.355000000000018</v>
       </c>
       <c r="N761" s="72">
         <v>52.662999999999997</v>
@@ -42678,13 +42678,13 @@
         <v>29.773000000000003</v>
       </c>
       <c r="L824" s="72">
-        <v>57.118999999999993</v>
+        <v>57.119000000000007</v>
       </c>
       <c r="M824" s="72">
         <v>132.50700000000001</v>
       </c>
       <c r="N824" s="72">
-        <v>86.891999999999996</v>
+        <v>86.89200000000001</v>
       </c>
     </row>
     <row r="825" spans="1:14" x14ac:dyDescent="0.25">
@@ -42719,7 +42719,7 @@
         <v>70</v>
       </c>
       <c r="K825" s="72">
-        <v>101.53800000000001</v>
+        <v>101.53799999999998</v>
       </c>
       <c r="L825" s="72">
         <v>65.225999999999999</v>
@@ -42728,7 +42728,7 @@
         <v>21.666</v>
       </c>
       <c r="N825" s="72">
-        <v>166.76400000000001</v>
+        <v>166.76399999999998</v>
       </c>
     </row>
     <row r="826" spans="1:14" x14ac:dyDescent="0.25">
@@ -42839,7 +42839,7 @@
         <v>70</v>
       </c>
       <c r="K828" s="72">
-        <v>65.322000000000003</v>
+        <v>65.322000000000017</v>
       </c>
       <c r="L828" s="72">
         <v>0</v>
@@ -42848,7 +42848,7 @@
         <v>0</v>
       </c>
       <c r="N828" s="72">
-        <v>65.322000000000003</v>
+        <v>65.322000000000017</v>
       </c>
     </row>
     <row r="829" spans="1:14" x14ac:dyDescent="0.25">
@@ -42974,13 +42974,13 @@
         <v>42.980000000000004</v>
       </c>
       <c r="L831" s="72">
-        <v>49.090999999999994</v>
+        <v>49.091000000000022</v>
       </c>
       <c r="M831" s="72">
         <v>110.893</v>
       </c>
       <c r="N831" s="72">
-        <v>92.070999999999998</v>
+        <v>92.071000000000026</v>
       </c>
     </row>
     <row r="832" spans="1:14" x14ac:dyDescent="0.25">
@@ -43065,7 +43065,7 @@
         <v>31.589999999999996</v>
       </c>
       <c r="M833" s="72">
-        <v>86.388000000000005</v>
+        <v>86.387999999999991</v>
       </c>
       <c r="N833" s="72">
         <v>39.332999999999998</v>
@@ -45934,13 +45934,13 @@
         <v>50.408000000000001</v>
       </c>
       <c r="L901" s="72">
-        <v>57.665000000000006</v>
+        <v>57.664999999999992</v>
       </c>
       <c r="M901" s="72">
         <v>170.767</v>
       </c>
       <c r="N901" s="72">
-        <v>108.07300000000001</v>
+        <v>108.07299999999999</v>
       </c>
     </row>
     <row r="902" spans="1:14" x14ac:dyDescent="0.25">
@@ -45978,13 +45978,13 @@
         <v>83.483000000000004</v>
       </c>
       <c r="L902" s="72">
-        <v>80.94599999999997</v>
+        <v>80.945999999999998</v>
       </c>
       <c r="M902" s="72">
         <v>27.127000000000002</v>
       </c>
       <c r="N902" s="72">
-        <v>164.42899999999997</v>
+        <v>164.429</v>
       </c>
     </row>
     <row r="903" spans="1:14" x14ac:dyDescent="0.25">
@@ -46022,13 +46022,13 @@
         <v>9.9500000000000011</v>
       </c>
       <c r="L903" s="72">
-        <v>78.388000000000005</v>
+        <v>78.387999999999991</v>
       </c>
       <c r="M903" s="72">
         <v>86.040999999999997</v>
       </c>
       <c r="N903" s="72">
-        <v>88.338000000000008</v>
+        <v>88.337999999999994</v>
       </c>
     </row>
     <row r="904" spans="1:14" x14ac:dyDescent="0.25">
@@ -46066,7 +46066,7 @@
         <v>0</v>
       </c>
       <c r="M904" s="72">
-        <v>88.338000000000008</v>
+        <v>88.337999999999994</v>
       </c>
       <c r="N904" s="72">
         <v>0</v>
@@ -46142,13 +46142,13 @@
         <v>66.418000000000006</v>
       </c>
       <c r="L906" s="72">
-        <v>83.847000000000008</v>
+        <v>83.84699999999998</v>
       </c>
       <c r="M906" s="72">
         <v>19.306000000000001</v>
       </c>
       <c r="N906" s="72">
-        <v>150.26500000000001</v>
+        <v>150.26499999999999</v>
       </c>
     </row>
     <row r="907" spans="1:14" x14ac:dyDescent="0.25">
@@ -47871,7 +47871,7 @@
         <v>70</v>
       </c>
       <c r="K947" s="72">
-        <v>66.001000000000005</v>
+        <v>66.000999999999991</v>
       </c>
       <c r="L947" s="72">
         <v>0</v>
@@ -47880,7 +47880,7 @@
         <v>0</v>
       </c>
       <c r="N947" s="72">
-        <v>66.001000000000005</v>
+        <v>66.000999999999991</v>
       </c>
     </row>
     <row r="948" spans="1:14" x14ac:dyDescent="0.25">
@@ -47962,13 +47962,13 @@
         <v>36.58</v>
       </c>
       <c r="L949" s="72">
-        <v>100.55400000000002</v>
+        <v>100.55399999999996</v>
       </c>
       <c r="M949" s="72">
-        <v>44.588999999999999</v>
+        <v>44.588999999999992</v>
       </c>
       <c r="N949" s="72">
-        <v>137.13400000000001</v>
+        <v>137.13399999999996</v>
       </c>
     </row>
     <row r="950" spans="1:14" x14ac:dyDescent="0.25">
@@ -48003,10 +48003,10 @@
         <v>70</v>
       </c>
       <c r="K950" s="72">
-        <v>41.016999999999996</v>
+        <v>41.017000000000003</v>
       </c>
       <c r="L950" s="72">
-        <v>46.66</v>
+        <v>46.659999999999989</v>
       </c>
       <c r="M950" s="72">
         <v>90.474000000000004</v>
@@ -48047,16 +48047,16 @@
         <v>70</v>
       </c>
       <c r="K951" s="72">
-        <v>50.034000000000006</v>
+        <v>50.033999999999999</v>
       </c>
       <c r="L951" s="72">
-        <v>68.977999999999994</v>
+        <v>68.97799999999998</v>
       </c>
       <c r="M951" s="72">
-        <v>18.699000000000002</v>
+        <v>18.698999999999998</v>
       </c>
       <c r="N951" s="72">
-        <v>119.012</v>
+        <v>119.01199999999999</v>
       </c>
     </row>
     <row r="952" spans="1:14" x14ac:dyDescent="0.25">
@@ -48097,7 +48097,7 @@
         <v>58.996000000000009</v>
       </c>
       <c r="M952" s="72">
-        <v>60.015999999999998</v>
+        <v>60.016000000000005</v>
       </c>
       <c r="N952" s="72">
         <v>73.318000000000012</v>
@@ -49395,13 +49395,13 @@
         <v>70</v>
       </c>
       <c r="K983" s="72">
-        <v>42.014000000000003</v>
+        <v>42.013999999999996</v>
       </c>
       <c r="L983" s="72">
         <v>64.460000000000008</v>
       </c>
       <c r="M983" s="72">
-        <v>15.03</v>
+        <v>15.030000000000001</v>
       </c>
       <c r="N983" s="72">
         <v>106.474</v>
@@ -49489,7 +49489,7 @@
         <v>63.336000000000006</v>
       </c>
       <c r="M985" s="72">
-        <v>58.052</v>
+        <v>58.052000000000007</v>
       </c>
       <c r="N985" s="72">
         <v>83.579000000000008</v>
@@ -50643,10 +50643,10 @@
         <v>70</v>
       </c>
       <c r="K1013" s="72">
-        <v>127.441</v>
+        <v>127.44099999999997</v>
       </c>
       <c r="L1013" s="72">
-        <v>110.45999999999998</v>
+        <v>110.46000000000001</v>
       </c>
       <c r="M1013" s="72">
         <v>14.858000000000001</v>
@@ -50693,7 +50693,7 @@
         <v>68.638000000000005</v>
       </c>
       <c r="M1014" s="72">
-        <v>169.26300000000003</v>
+        <v>169.26299999999998</v>
       </c>
       <c r="N1014" s="72">
         <v>88.161000000000001</v>
@@ -50807,7 +50807,7 @@
         <v>70</v>
       </c>
       <c r="K1017" s="72">
-        <v>88.449999999999989</v>
+        <v>88.450000000000017</v>
       </c>
       <c r="L1017" s="72">
         <v>0</v>
@@ -50816,7 +50816,7 @@
         <v>0</v>
       </c>
       <c r="N1017" s="72">
-        <v>88.449999999999989</v>
+        <v>88.450000000000017</v>
       </c>
     </row>
     <row r="1018" spans="1:14" x14ac:dyDescent="0.25">
@@ -52234,13 +52234,13 @@
         <v>25.829000000000001</v>
       </c>
       <c r="L1051" s="72">
-        <v>36.08100000000001</v>
+        <v>36.080999999999989</v>
       </c>
       <c r="M1051" s="72">
         <v>11.257999999999999</v>
       </c>
       <c r="N1051" s="72">
-        <v>61.910000000000011</v>
+        <v>61.909999999999989</v>
       </c>
     </row>
     <row r="1052" spans="1:14" x14ac:dyDescent="0.25">
@@ -52275,7 +52275,7 @@
         <v>70</v>
       </c>
       <c r="K1052" s="72">
-        <v>13.195</v>
+        <v>13.195000000000002</v>
       </c>
       <c r="L1052" s="72">
         <v>39.300000000000004</v>
@@ -53890,7 +53890,7 @@
         <v>0</v>
       </c>
       <c r="M1090" s="72">
-        <v>26.532</v>
+        <v>26.531999999999996</v>
       </c>
       <c r="N1090" s="72">
         <v>0</v>
@@ -53963,16 +53963,16 @@
         <v>70</v>
       </c>
       <c r="K1092" s="72">
-        <v>112.10600000000001</v>
+        <v>112.10599999999999</v>
       </c>
       <c r="L1092" s="72">
-        <v>7.0550000000000068</v>
+        <v>7.0549999999999926</v>
       </c>
       <c r="M1092" s="72">
         <v>2.5259999999999998</v>
       </c>
       <c r="N1092" s="72">
-        <v>119.16100000000002</v>
+        <v>119.16099999999999</v>
       </c>
     </row>
     <row r="1093" spans="1:14" x14ac:dyDescent="0.25">
@@ -54051,16 +54051,16 @@
         <v>70</v>
       </c>
       <c r="K1094" s="72">
-        <v>40.143000000000001</v>
+        <v>40.142999999999994</v>
       </c>
       <c r="L1094" s="72">
-        <v>96.543000000000006</v>
+        <v>96.543000000000035</v>
       </c>
       <c r="M1094" s="72">
         <v>34.076000000000001</v>
       </c>
       <c r="N1094" s="72">
-        <v>136.68600000000001</v>
+        <v>136.68600000000004</v>
       </c>
     </row>
     <row r="1095" spans="1:14" x14ac:dyDescent="0.25">
@@ -54098,13 +54098,13 @@
         <v>24.137999999999998</v>
       </c>
       <c r="L1095" s="72">
-        <v>108.62300000000002</v>
+        <v>108.62299999999999</v>
       </c>
       <c r="M1095" s="72">
         <v>28.063000000000002</v>
       </c>
       <c r="N1095" s="72">
-        <v>132.76100000000002</v>
+        <v>132.761</v>
       </c>
     </row>
     <row r="1096" spans="1:14" x14ac:dyDescent="0.25">
@@ -55695,7 +55695,7 @@
         <v>70</v>
       </c>
       <c r="K1133" s="72">
-        <v>17.874000000000002</v>
+        <v>17.873999999999999</v>
       </c>
       <c r="L1133" s="72">
         <v>0</v>
@@ -55704,7 +55704,7 @@
         <v>0</v>
       </c>
       <c r="N1133" s="72">
-        <v>17.874000000000002</v>
+        <v>17.873999999999999</v>
       </c>
     </row>
     <row r="1134" spans="1:14" x14ac:dyDescent="0.25">
@@ -55739,7 +55739,7 @@
         <v>70</v>
       </c>
       <c r="K1134" s="72">
-        <v>65.736999999999995</v>
+        <v>65.737000000000009</v>
       </c>
       <c r="L1134" s="72">
         <v>13.605000000000004</v>
@@ -55748,7 +55748,7 @@
         <v>4.2690000000000001</v>
       </c>
       <c r="N1134" s="72">
-        <v>79.341999999999999</v>
+        <v>79.342000000000013</v>
       </c>
     </row>
     <row r="1135" spans="1:14" x14ac:dyDescent="0.25">
@@ -55830,13 +55830,13 @@
         <v>40.25</v>
       </c>
       <c r="L1136" s="72">
-        <v>33.838000000000008</v>
+        <v>33.837999999999994</v>
       </c>
       <c r="M1136" s="72">
         <v>20.542999999999999</v>
       </c>
       <c r="N1136" s="72">
-        <v>74.088000000000008</v>
+        <v>74.087999999999994</v>
       </c>
     </row>
     <row r="1137" spans="1:14" x14ac:dyDescent="0.25">
@@ -55874,13 +55874,13 @@
         <v>15.536999999999999</v>
       </c>
       <c r="L1137" s="72">
-        <v>31.564999999999998</v>
+        <v>31.565000000000005</v>
       </c>
       <c r="M1137" s="72">
-        <v>42.52300000000001</v>
+        <v>42.523000000000003</v>
       </c>
       <c r="N1137" s="72">
-        <v>47.101999999999997</v>
+        <v>47.102000000000004</v>
       </c>
     </row>
     <row r="1138" spans="1:14" x14ac:dyDescent="0.25">
@@ -55918,13 +55918,13 @@
         <v>5.4249999999999998</v>
       </c>
       <c r="L1138" s="72">
-        <v>13.725999999999999</v>
+        <v>13.726000000000003</v>
       </c>
       <c r="M1138" s="72">
         <v>33.376000000000005</v>
       </c>
       <c r="N1138" s="72">
-        <v>19.151</v>
+        <v>19.151000000000003</v>
       </c>
     </row>
     <row r="1139" spans="1:14" x14ac:dyDescent="0.25">
@@ -55962,7 +55962,7 @@
         <v>0</v>
       </c>
       <c r="M1139" s="72">
-        <v>19.151</v>
+        <v>19.151000000000003</v>
       </c>
       <c r="N1139" s="72">
         <v>0</v>
@@ -57313,7 +57313,7 @@
         <v>71.326999999999998</v>
       </c>
       <c r="M1171" s="72">
-        <v>18.958000000000002</v>
+        <v>18.957999999999998</v>
       </c>
       <c r="N1171" s="72">
         <v>114.544</v>
@@ -57398,13 +57398,13 @@
         <v>26.950000000000003</v>
       </c>
       <c r="L1173" s="72">
-        <v>84.61999999999999</v>
+        <v>84.62</v>
       </c>
       <c r="M1173" s="72">
         <v>57.320999999999998</v>
       </c>
       <c r="N1173" s="72">
-        <v>111.57</v>
+        <v>111.57000000000001</v>
       </c>
     </row>
     <row r="1174" spans="1:14" x14ac:dyDescent="0.25">
@@ -57442,7 +57442,7 @@
         <v>0</v>
       </c>
       <c r="M1174" s="72">
-        <v>111.57</v>
+        <v>111.57000000000001</v>
       </c>
       <c r="N1174" s="72">
         <v>0</v>
@@ -57559,10 +57559,10 @@
         <v>70</v>
       </c>
       <c r="K1177" s="72">
-        <v>36.151000000000003</v>
+        <v>36.150999999999996</v>
       </c>
       <c r="L1177" s="72">
-        <v>34.574999999999996</v>
+        <v>34.575000000000003</v>
       </c>
       <c r="M1177" s="72">
         <v>20.277999999999999</v>
@@ -61702,13 +61702,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="72">
-        <v>206.26299999999998</v>
+        <v>206.26300000000001</v>
       </c>
       <c r="H6" s="72">
         <v>280</v>
       </c>
       <c r="I6" s="76">
-        <v>0.73665357142857135</v>
+        <v>0.73665357142857146</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -61760,13 +61760,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="72">
-        <v>60.687250000000027</v>
+        <v>60.687250000000041</v>
       </c>
       <c r="H8" s="72">
         <v>70</v>
       </c>
       <c r="I8" s="76">
-        <v>0.86696071428571464</v>
+        <v>0.86696071428571486</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -61789,13 +61789,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="72">
-        <v>15.392249999999999</v>
+        <v>15.392250000000001</v>
       </c>
       <c r="H9" s="72">
         <v>70</v>
       </c>
       <c r="I9" s="76">
-        <v>0.2198892857142857</v>
+        <v>0.21988928571428573</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -61818,13 +61818,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>237.08674999999994</v>
+        <v>237.0867499999998</v>
       </c>
       <c r="H10" s="72">
         <v>280</v>
       </c>
       <c r="I10" s="76">
-        <v>0.84673839285714259</v>
+        <v>0.84673839285714214</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -61847,13 +61847,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="72">
-        <v>62.002499999999998</v>
+        <v>62.002499999999991</v>
       </c>
       <c r="H11" s="72">
         <v>280</v>
       </c>
       <c r="I11" s="76">
-        <v>0.22143749999999998</v>
+        <v>0.22143749999999995</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -61963,13 +61963,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="72">
-        <v>89.49475000000001</v>
+        <v>89.494749999999996</v>
       </c>
       <c r="H15" s="72">
         <v>140</v>
       </c>
       <c r="I15" s="76">
-        <v>0.63924821428571432</v>
+        <v>0.63924821428571421</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -61992,13 +61992,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>330.30925000000002</v>
+        <v>330.30924999999991</v>
       </c>
       <c r="H16" s="72">
         <v>350</v>
       </c>
       <c r="I16" s="76">
-        <v>0.94374071428571438</v>
+        <v>0.94374071428571404</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -62021,13 +62021,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>118.46074999999998</v>
+        <v>118.46075000000002</v>
       </c>
       <c r="H17" s="72">
         <v>350</v>
       </c>
       <c r="I17" s="76">
-        <v>0.33845928571428563</v>
+        <v>0.33845928571428574</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -62050,13 +62050,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="72">
-        <v>40.9</v>
+        <v>40.899999999999991</v>
       </c>
       <c r="H18" s="72">
         <v>70</v>
       </c>
       <c r="I18" s="76">
-        <v>0.5842857142857143</v>
+        <v>0.58428571428571419</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -62079,13 +62079,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>50.377999999999979</v>
+        <v>50.377999999999986</v>
       </c>
       <c r="H19" s="72">
         <v>70</v>
       </c>
       <c r="I19" s="76">
-        <v>0.71968571428571393</v>
+        <v>0.71968571428571404</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -62137,13 +62137,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="72">
-        <v>22.821000000000002</v>
+        <v>22.820999999999994</v>
       </c>
       <c r="H21" s="72">
         <v>70</v>
       </c>
       <c r="I21" s="76">
-        <v>0.32601428571428576</v>
+        <v>0.32601428571428565</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -62224,13 +62224,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="72">
-        <v>53.932499999999997</v>
+        <v>53.932500000000026</v>
       </c>
       <c r="H24" s="72">
         <v>140</v>
       </c>
       <c r="I24" s="76">
-        <v>0.38523214285714286</v>
+        <v>0.38523214285714302</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -62253,13 +62253,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="72">
-        <v>34.472250000000003</v>
+        <v>34.472249999999988</v>
       </c>
       <c r="H25" s="72">
         <v>140</v>
       </c>
       <c r="I25" s="76">
-        <v>0.24623035714285715</v>
+        <v>0.24623035714285707</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -62311,7 +62311,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="72">
-        <v>22.6935</v>
+        <v>22.693500000000004</v>
       </c>
       <c r="H27" s="72">
         <v>70</v>
@@ -62340,13 +62340,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="72">
-        <v>110.22175</v>
+        <v>110.22174999999994</v>
       </c>
       <c r="H28" s="72">
         <v>140</v>
       </c>
       <c r="I28" s="76">
-        <v>0.78729821428571434</v>
+        <v>0.78729821428571389</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -62369,13 +62369,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="72">
-        <v>88.475750000000033</v>
+        <v>88.475749999999991</v>
       </c>
       <c r="H29" s="72">
         <v>140</v>
       </c>
       <c r="I29" s="76">
-        <v>0.63196964285714308</v>
+        <v>0.63196964285714274</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -62398,13 +62398,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="72">
-        <v>57.08600000000002</v>
+        <v>57.086000000000006</v>
       </c>
       <c r="H30" s="72">
         <v>140</v>
       </c>
       <c r="I30" s="76">
-        <v>0.40775714285714298</v>
+        <v>0.40775714285714287</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -62456,13 +62456,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>81.921500000000009</v>
+        <v>81.921499999999995</v>
       </c>
       <c r="H32" s="72">
         <v>140</v>
       </c>
       <c r="I32" s="76">
-        <v>0.5851535714285715</v>
+        <v>0.58515357142857138</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -62485,13 +62485,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="72">
-        <v>145.09375</v>
+        <v>145.09374999999994</v>
       </c>
       <c r="H33" s="72">
         <v>140</v>
       </c>
       <c r="I33" s="76">
-        <v>1.0363839285714285</v>
+        <v>1.0363839285714282</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -62514,13 +62514,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>588.88674999999978</v>
+        <v>588.88674999999989</v>
       </c>
       <c r="H34" s="72">
         <v>630</v>
       </c>
       <c r="I34" s="76">
-        <v>0.93474087301587272</v>
+        <v>0.93474087301587283</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -62543,13 +62543,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>240.32424999999995</v>
+        <v>240.32424999999998</v>
       </c>
       <c r="H35" s="72">
         <v>630</v>
       </c>
       <c r="I35" s="76">
-        <v>0.38146706349206339</v>
+        <v>0.38146706349206344</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -62572,13 +62572,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="72">
-        <v>50.31</v>
+        <v>50.310000000000016</v>
       </c>
       <c r="H36" s="72">
         <v>140</v>
       </c>
       <c r="I36" s="76">
-        <v>0.35935714285714287</v>
+        <v>0.35935714285714299</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -62630,13 +62630,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="72">
-        <v>64.272999999999996</v>
+        <v>64.27300000000001</v>
       </c>
       <c r="H38" s="72">
         <v>140</v>
       </c>
       <c r="I38" s="76">
-        <v>0.45909285714285714</v>
+        <v>0.45909285714285719</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -62659,13 +62659,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="72">
-        <v>58.217500000000001</v>
+        <v>58.217500000000022</v>
       </c>
       <c r="H39" s="72">
         <v>140</v>
       </c>
       <c r="I39" s="76">
-        <v>0.41583928571428574</v>
+        <v>0.41583928571428586</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -62688,13 +62688,13 @@
         <v>0</v>
       </c>
       <c r="G40" s="72">
-        <v>8.9102499999999996</v>
+        <v>8.9102500000000013</v>
       </c>
       <c r="H40" s="72">
         <v>70</v>
       </c>
       <c r="I40" s="76">
-        <v>0.12728928571428572</v>
+        <v>0.12728928571428574</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -62717,13 +62717,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="72">
-        <v>18.68975</v>
+        <v>18.689749999999997</v>
       </c>
       <c r="H41" s="72">
         <v>70</v>
       </c>
       <c r="I41" s="76">
-        <v>0.26699642857142858</v>
+        <v>0.26699642857142852</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -62746,7 +62746,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="72">
-        <v>112.91775000000001</v>
+        <v>112.91775000000003</v>
       </c>
       <c r="H42" s="72">
         <v>210</v>
@@ -62775,13 +62775,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="72">
-        <v>54.456500000000013</v>
+        <v>54.456499999999998</v>
       </c>
       <c r="H43" s="72">
         <v>210</v>
       </c>
       <c r="I43" s="76">
-        <v>0.25931666666666675</v>
+        <v>0.25931666666666664</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -62804,13 +62804,13 @@
         <v>0</v>
       </c>
       <c r="G44" s="72">
-        <v>21.566499999999998</v>
+        <v>21.566500000000001</v>
       </c>
       <c r="H44" s="72">
         <v>70</v>
       </c>
       <c r="I44" s="76">
-        <v>0.30809285714285711</v>
+        <v>0.30809285714285717</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -62833,13 +62833,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="72">
-        <v>10.7615</v>
+        <v>10.761500000000002</v>
       </c>
       <c r="H45" s="72">
         <v>70</v>
       </c>
       <c r="I45" s="76">
-        <v>0.15373571428571428</v>
+        <v>0.15373571428571431</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -62862,7 +62862,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>189.34475000000006</v>
+        <v>189.34475000000003</v>
       </c>
       <c r="H46" s="72">
         <v>280</v>
@@ -62891,13 +62891,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>111.85474999999997</v>
+        <v>111.85474999999995</v>
       </c>
       <c r="H47" s="72">
         <v>280</v>
       </c>
       <c r="I47" s="76">
-        <v>0.3994812499999999</v>
+        <v>0.39948124999999984</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -62920,13 +62920,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="72">
-        <v>51.991750000000017</v>
+        <v>51.99175000000001</v>
       </c>
       <c r="H48" s="72">
         <v>140</v>
       </c>
       <c r="I48" s="76">
-        <v>0.37136964285714297</v>
+        <v>0.37136964285714291</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -62949,13 +62949,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="72">
-        <v>54.576999999999998</v>
+        <v>54.577000000000005</v>
       </c>
       <c r="H49" s="72">
         <v>140</v>
       </c>
       <c r="I49" s="76">
-        <v>0.38983571428571429</v>
+        <v>0.38983571428571434</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -63007,13 +63007,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>148.26750000000001</v>
+        <v>148.26750000000007</v>
       </c>
       <c r="H51" s="72">
         <v>140</v>
       </c>
       <c r="I51" s="76">
-        <v>1.0590535714285716</v>
+        <v>1.0590535714285718</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -63036,13 +63036,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>271.38550000000009</v>
+        <v>271.38549999999992</v>
       </c>
       <c r="H52" s="72">
         <v>490</v>
       </c>
       <c r="I52" s="76">
-        <v>0.55384795918367369</v>
+        <v>0.55384795918367336</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -63065,13 +63065,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>404.37025000000006</v>
+        <v>404.37025000000011</v>
       </c>
       <c r="H53" s="72">
         <v>490</v>
       </c>
       <c r="I53" s="76">
-        <v>0.82524540816326541</v>
+        <v>0.82524540816326553</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -63094,13 +63094,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="72">
-        <v>35.604249999999993</v>
+        <v>35.604250000000008</v>
       </c>
       <c r="H54" s="72">
         <v>70</v>
       </c>
       <c r="I54" s="76">
-        <v>0.50863214285714275</v>
+        <v>0.50863214285714298</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -63123,13 +63123,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="72">
-        <v>45.251250000000006</v>
+        <v>45.25125000000002</v>
       </c>
       <c r="H55" s="72">
         <v>70</v>
       </c>
       <c r="I55" s="76">
-        <v>0.64644642857142864</v>
+        <v>0.64644642857142887</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -63181,13 +63181,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="72">
-        <v>61.506249999999994</v>
+        <v>61.506250000000016</v>
       </c>
       <c r="H57" s="72">
         <v>140</v>
       </c>
       <c r="I57" s="76">
-        <v>0.43933035714285712</v>
+        <v>0.43933035714285723</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -63268,13 +63268,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="72">
-        <v>52.231749999999998</v>
+        <v>52.231750000000012</v>
       </c>
       <c r="H60" s="72">
         <v>70</v>
       </c>
       <c r="I60" s="76">
-        <v>0.74616785714285716</v>
+        <v>0.74616785714285727</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -63297,13 +63297,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="72">
-        <v>31.046749999999996</v>
+        <v>31.046750000000007</v>
       </c>
       <c r="H61" s="72">
         <v>70</v>
       </c>
       <c r="I61" s="76">
-        <v>0.44352499999999995</v>
+        <v>0.44352500000000011</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -63326,13 +63326,13 @@
         <v>0</v>
       </c>
       <c r="G62" s="72">
-        <v>23.599999999999998</v>
+        <v>23.6</v>
       </c>
       <c r="H62" s="72">
         <v>70</v>
       </c>
       <c r="I62" s="76">
-        <v>0.33714285714285713</v>
+        <v>0.33714285714285719</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -63355,13 +63355,13 @@
         <v>0</v>
       </c>
       <c r="G63" s="72">
-        <v>13.262749999999997</v>
+        <v>13.26275</v>
       </c>
       <c r="H63" s="72">
         <v>70</v>
       </c>
       <c r="I63" s="76">
-        <v>0.1894678571428571</v>
+        <v>0.18946785714285716</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -63384,13 +63384,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>157.1285</v>
+        <v>157.12849999999989</v>
       </c>
       <c r="H64" s="72">
         <v>210</v>
       </c>
       <c r="I64" s="76">
-        <v>0.74823095238095239</v>
+        <v>0.74823095238095183</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -63413,13 +63413,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>95.303499999999985</v>
+        <v>95.3035</v>
       </c>
       <c r="H65" s="72">
         <v>210</v>
       </c>
       <c r="I65" s="76">
-        <v>0.45382619047619038</v>
+        <v>0.45382619047619049</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -63500,13 +63500,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="72">
-        <v>100.57525</v>
+        <v>100.57525000000004</v>
       </c>
       <c r="H68" s="72">
         <v>210</v>
       </c>
       <c r="I68" s="76">
-        <v>0.47892976190476189</v>
+        <v>0.47892976190476211</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -63529,13 +63529,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="72">
-        <v>130.92875000000001</v>
+        <v>130.92875000000009</v>
       </c>
       <c r="H69" s="72">
         <v>210</v>
       </c>
       <c r="I69" s="76">
-        <v>0.62347023809523816</v>
+        <v>0.62347023809523849</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -63558,13 +63558,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="72">
-        <v>197.32524999999995</v>
+        <v>197.32525000000007</v>
       </c>
       <c r="H70" s="72">
         <v>280</v>
       </c>
       <c r="I70" s="76">
-        <v>0.70473303571428558</v>
+        <v>0.70473303571428592</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -63587,13 +63587,13 @@
         <v>0</v>
       </c>
       <c r="G71" s="72">
-        <v>185.66075000000009</v>
+        <v>185.66075000000004</v>
       </c>
       <c r="H71" s="72">
         <v>280</v>
       </c>
       <c r="I71" s="76">
-        <v>0.66307410714285753</v>
+        <v>0.66307410714285731</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -63616,13 +63616,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="72">
-        <v>45.395250000000004</v>
+        <v>45.395250000000011</v>
       </c>
       <c r="H72" s="72">
         <v>140</v>
       </c>
       <c r="I72" s="76">
-        <v>0.32425178571428576</v>
+        <v>0.32425178571428581</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -63645,13 +63645,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="72">
-        <v>56.677999999999997</v>
+        <v>56.67799999999999</v>
       </c>
       <c r="H73" s="72">
         <v>140</v>
       </c>
       <c r="I73" s="76">
-        <v>0.40484285714285712</v>
+        <v>0.40484285714285706</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -63703,13 +63703,13 @@
         <v>0</v>
       </c>
       <c r="G75" s="72">
-        <v>29.971000000000004</v>
+        <v>29.970999999999997</v>
       </c>
       <c r="H75" s="72">
         <v>70</v>
       </c>
       <c r="I75" s="76">
-        <v>0.4281571428571429</v>
+        <v>0.42815714285714279</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -63790,13 +63790,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>67.514250000000033</v>
+        <v>67.514250000000018</v>
       </c>
       <c r="H78" s="72">
         <v>140</v>
       </c>
       <c r="I78" s="76">
-        <v>0.48224464285714308</v>
+        <v>0.48224464285714297</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -63848,13 +63848,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="72">
-        <v>111.88175000000003</v>
+        <v>111.88175000000007</v>
       </c>
       <c r="H80" s="72">
         <v>140</v>
       </c>
       <c r="I80" s="76">
-        <v>0.79915535714285735</v>
+        <v>0.79915535714285768</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -63877,13 +63877,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="72">
-        <v>63.076500000000024</v>
+        <v>63.076499999999996</v>
       </c>
       <c r="H81" s="72">
         <v>140</v>
       </c>
       <c r="I81" s="76">
-        <v>0.45054642857142874</v>
+        <v>0.45054642857142851</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -63906,13 +63906,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>167.26875000000001</v>
+        <v>167.2687500000001</v>
       </c>
       <c r="H82" s="72">
         <v>210</v>
       </c>
       <c r="I82" s="76">
-        <v>0.79651785714285717</v>
+        <v>0.79651785714285761</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -63935,13 +63935,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="72">
-        <v>82.810000000000031</v>
+        <v>82.81</v>
       </c>
       <c r="H83" s="72">
         <v>210</v>
       </c>
       <c r="I83" s="76">
-        <v>0.39433333333333348</v>
+        <v>0.39433333333333337</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -63964,13 +63964,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="72">
-        <v>168.25125000000003</v>
+        <v>168.25125000000006</v>
       </c>
       <c r="H84" s="72">
         <v>210</v>
       </c>
       <c r="I84" s="76">
-        <v>0.8011964285714287</v>
+        <v>0.80119642857142881</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -63993,13 +63993,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>40.552</v>
+        <v>40.552000000000007</v>
       </c>
       <c r="H85" s="72">
         <v>210</v>
       </c>
       <c r="I85" s="76">
-        <v>0.19310476190476189</v>
+        <v>0.19310476190476195</v>
       </c>
     </row>
   </sheetData>

--- a/Grid_5x5/Solutions/Solution_NDP_S069/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S069/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2734,7 +2734,7 @@
         <v>204</v>
       </c>
       <c r="C43" s="40">
-        <v>1.6829142857142856</v>
+        <v>1.6829142857142858</v>
       </c>
       <c r="D43" s="67" t="s">
         <v>42</v>
@@ -8131,7 +8131,7 @@
         <v>70</v>
       </c>
       <c r="K7" s="72">
-        <v>29.383999999999997</v>
+        <v>29.384</v>
       </c>
       <c r="L7" s="72">
         <v>76.225999999999999</v>
@@ -8175,7 +8175,7 @@
         <v>70</v>
       </c>
       <c r="K8" s="72">
-        <v>7.8749999999999991</v>
+        <v>7.875</v>
       </c>
       <c r="L8" s="72">
         <v>33.085999999999999</v>
@@ -8225,7 +8225,7 @@
         <v>26.722000000000001</v>
       </c>
       <c r="M9" s="72">
-        <v>14.238999999999999</v>
+        <v>14.239000000000001</v>
       </c>
       <c r="N9" s="72">
         <v>33.978000000000002</v>
@@ -8339,7 +8339,7 @@
         <v>70</v>
       </c>
       <c r="K12" s="72">
-        <v>87.62</v>
+        <v>87.61999999999999</v>
       </c>
       <c r="L12" s="72">
         <v>0</v>
@@ -8348,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="72">
-        <v>87.62</v>
+        <v>87.61999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -9690,13 +9690,13 @@
         <v>26.824999999999996</v>
       </c>
       <c r="L44" s="72">
-        <v>51.255000000000003</v>
+        <v>51.254999999999988</v>
       </c>
       <c r="M44" s="72">
         <v>27.936</v>
       </c>
       <c r="N44" s="72">
-        <v>78.08</v>
+        <v>78.079999999999984</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -9778,13 +9778,13 @@
         <v>5.1440000000000001</v>
       </c>
       <c r="L46" s="72">
-        <v>39.099000000000004</v>
+        <v>39.099000000000011</v>
       </c>
       <c r="M46" s="72">
         <v>26.410000000000004</v>
       </c>
       <c r="N46" s="72">
-        <v>44.243000000000002</v>
+        <v>44.243000000000009</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -9822,7 +9822,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="72">
-        <v>44.243000000000002</v>
+        <v>44.243000000000009</v>
       </c>
       <c r="N47" s="72">
         <v>0</v>
@@ -11202,13 +11202,13 @@
         <v>19.177</v>
       </c>
       <c r="L80" s="72">
-        <v>54.980000000000011</v>
+        <v>54.98</v>
       </c>
       <c r="M80" s="72">
         <v>13.407</v>
       </c>
       <c r="N80" s="72">
-        <v>74.157000000000011</v>
+        <v>74.156999999999996</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -11243,16 +11243,16 @@
         <v>70</v>
       </c>
       <c r="K81" s="72">
-        <v>25.994000000000003</v>
+        <v>25.994</v>
       </c>
       <c r="L81" s="72">
-        <v>41.680999999999997</v>
+        <v>41.681000000000012</v>
       </c>
       <c r="M81" s="72">
         <v>32.475999999999999</v>
       </c>
       <c r="N81" s="72">
-        <v>67.674999999999997</v>
+        <v>67.675000000000011</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -11407,10 +11407,10 @@
         <v>70</v>
       </c>
       <c r="K85" s="72">
-        <v>25.716000000000001</v>
+        <v>25.715999999999998</v>
       </c>
       <c r="L85" s="72">
-        <v>16.627000000000002</v>
+        <v>16.627000000000006</v>
       </c>
       <c r="M85" s="72">
         <v>5.0140000000000002</v>
@@ -12755,7 +12755,7 @@
         <v>70</v>
       </c>
       <c r="K117" s="72">
-        <v>12.656000000000001</v>
+        <v>12.655999999999999</v>
       </c>
       <c r="L117" s="72">
         <v>44.529000000000003</v>
@@ -12799,16 +12799,16 @@
         <v>70</v>
       </c>
       <c r="K118" s="72">
-        <v>27.797000000000001</v>
+        <v>27.796999999999997</v>
       </c>
       <c r="L118" s="72">
-        <v>33.848000000000013</v>
+        <v>33.848000000000006</v>
       </c>
       <c r="M118" s="72">
         <v>23.337000000000003</v>
       </c>
       <c r="N118" s="72">
-        <v>61.64500000000001</v>
+        <v>61.645000000000003</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -12846,7 +12846,7 @@
         <v>0</v>
       </c>
       <c r="M119" s="72">
-        <v>61.64500000000001</v>
+        <v>61.645000000000003</v>
       </c>
       <c r="N119" s="72">
         <v>0</v>
@@ -12922,13 +12922,13 @@
         <v>9.2210000000000001</v>
       </c>
       <c r="L121" s="72">
-        <v>15.814999999999998</v>
+        <v>15.815000000000001</v>
       </c>
       <c r="M121" s="72">
-        <v>8.74</v>
+        <v>8.7399999999999984</v>
       </c>
       <c r="N121" s="72">
-        <v>25.035999999999998</v>
+        <v>25.036000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -12966,13 +12966,13 @@
         <v>18.727</v>
       </c>
       <c r="L122" s="72">
-        <v>17.236000000000001</v>
+        <v>17.236000000000008</v>
       </c>
       <c r="M122" s="72">
         <v>7.8000000000000007</v>
       </c>
       <c r="N122" s="72">
-        <v>35.963000000000001</v>
+        <v>35.963000000000008</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -14267,16 +14267,16 @@
         <v>70</v>
       </c>
       <c r="K153" s="72">
-        <v>12.239000000000001</v>
+        <v>12.238999999999997</v>
       </c>
       <c r="L153" s="72">
-        <v>20.696000000000002</v>
+        <v>20.695999999999998</v>
       </c>
       <c r="M153" s="72">
-        <v>13.536000000000001</v>
+        <v>13.535999999999998</v>
       </c>
       <c r="N153" s="72">
-        <v>32.935000000000002</v>
+        <v>32.934999999999995</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -14387,7 +14387,7 @@
         <v>70</v>
       </c>
       <c r="K156" s="72">
-        <v>43.480000000000004</v>
+        <v>43.48</v>
       </c>
       <c r="L156" s="72">
         <v>0</v>
@@ -14396,7 +14396,7 @@
         <v>0</v>
       </c>
       <c r="N156" s="72">
-        <v>43.480000000000004</v>
+        <v>43.48</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -15946,13 +15946,13 @@
         <v>26.183999999999997</v>
       </c>
       <c r="L193" s="72">
-        <v>23.967000000000006</v>
+        <v>23.966999999999999</v>
       </c>
       <c r="M193" s="72">
         <v>5.0749999999999993</v>
       </c>
       <c r="N193" s="72">
-        <v>50.151000000000003</v>
+        <v>50.150999999999996</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
@@ -15987,16 +15987,16 @@
         <v>70</v>
       </c>
       <c r="K194" s="72">
-        <v>17.493000000000002</v>
+        <v>17.492999999999999</v>
       </c>
       <c r="L194" s="72">
         <v>35.064999999999998</v>
       </c>
       <c r="M194" s="72">
-        <v>15.085999999999999</v>
+        <v>15.086000000000002</v>
       </c>
       <c r="N194" s="72">
-        <v>52.558</v>
+        <v>52.557999999999993</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -16031,10 +16031,10 @@
         <v>70</v>
       </c>
       <c r="K195" s="72">
-        <v>11.941000000000003</v>
+        <v>11.940999999999999</v>
       </c>
       <c r="L195" s="72">
-        <v>35.82</v>
+        <v>35.820000000000007</v>
       </c>
       <c r="M195" s="72">
         <v>16.738</v>
@@ -16081,7 +16081,7 @@
         <v>25.797000000000001</v>
       </c>
       <c r="M196" s="72">
-        <v>21.964000000000002</v>
+        <v>21.963999999999999</v>
       </c>
       <c r="N196" s="72">
         <v>35.899000000000001</v>
@@ -17411,7 +17411,7 @@
         <v>70</v>
       </c>
       <c r="K228" s="72">
-        <v>34.835000000000001</v>
+        <v>34.835000000000008</v>
       </c>
       <c r="L228" s="72">
         <v>0</v>
@@ -17420,7 +17420,7 @@
         <v>0</v>
       </c>
       <c r="N228" s="72">
-        <v>34.835000000000001</v>
+        <v>34.835000000000008</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
@@ -17455,16 +17455,16 @@
         <v>70</v>
       </c>
       <c r="K229" s="72">
-        <v>38.095000000000006</v>
+        <v>38.094999999999999</v>
       </c>
       <c r="L229" s="72">
-        <v>26.579999999999991</v>
+        <v>26.580000000000013</v>
       </c>
       <c r="M229" s="72">
         <v>8.2550000000000008</v>
       </c>
       <c r="N229" s="72">
-        <v>64.674999999999997</v>
+        <v>64.675000000000011</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
@@ -17499,7 +17499,7 @@
         <v>70</v>
       </c>
       <c r="K230" s="72">
-        <v>7.7029999999999994</v>
+        <v>7.7030000000000003</v>
       </c>
       <c r="L230" s="72">
         <v>28.846</v>
@@ -17590,13 +17590,13 @@
         <v>2.2109999999999999</v>
       </c>
       <c r="L232" s="72">
-        <v>13.985999999999999</v>
+        <v>13.986000000000002</v>
       </c>
       <c r="M232" s="72">
         <v>19.82</v>
       </c>
       <c r="N232" s="72">
-        <v>16.196999999999999</v>
+        <v>16.197000000000003</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
@@ -17634,7 +17634,7 @@
         <v>0</v>
       </c>
       <c r="M233" s="72">
-        <v>16.196999999999999</v>
+        <v>16.197000000000003</v>
       </c>
       <c r="N233" s="72">
         <v>0</v>
@@ -18970,13 +18970,13 @@
         <v>50.183000000000007</v>
       </c>
       <c r="L265" s="72">
-        <v>33.322000000000003</v>
+        <v>33.322000000000017</v>
       </c>
       <c r="M265" s="72">
         <v>2.802</v>
       </c>
       <c r="N265" s="72">
-        <v>83.50500000000001</v>
+        <v>83.505000000000024</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
@@ -19017,7 +19017,7 @@
         <v>34.678000000000004</v>
       </c>
       <c r="M266" s="72">
-        <v>48.826999999999998</v>
+        <v>48.827000000000012</v>
       </c>
       <c r="N266" s="72">
         <v>54.683000000000007</v>
@@ -19058,13 +19058,13 @@
         <v>31.725000000000001</v>
       </c>
       <c r="L267" s="72">
-        <v>28.544999999999995</v>
+        <v>28.545000000000002</v>
       </c>
       <c r="M267" s="72">
-        <v>26.138000000000002</v>
+        <v>26.137999999999998</v>
       </c>
       <c r="N267" s="72">
-        <v>60.269999999999996</v>
+        <v>60.27</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
@@ -20277,7 +20277,7 @@
         <v>67.326999999999998</v>
       </c>
       <c r="M296" s="72">
-        <v>34.772000000000006</v>
+        <v>34.771999999999998</v>
       </c>
       <c r="N296" s="72">
         <v>115.047</v>
@@ -20435,7 +20435,7 @@
         <v>70</v>
       </c>
       <c r="K300" s="72">
-        <v>43.000000000000007</v>
+        <v>43</v>
       </c>
       <c r="L300" s="72">
         <v>0</v>
@@ -20444,7 +20444,7 @@
         <v>0</v>
       </c>
       <c r="N300" s="72">
-        <v>43.000000000000007</v>
+        <v>43</v>
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.25">
@@ -20479,7 +20479,7 @@
         <v>70</v>
       </c>
       <c r="K301" s="72">
-        <v>52.785000000000004</v>
+        <v>52.784999999999997</v>
       </c>
       <c r="L301" s="72">
         <v>5.5290000000000035</v>
@@ -20488,7 +20488,7 @@
         <v>37.471000000000004</v>
       </c>
       <c r="N301" s="72">
-        <v>58.314000000000007</v>
+        <v>58.314</v>
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.25">
@@ -21742,13 +21742,13 @@
         <v>55.427</v>
       </c>
       <c r="L331" s="72">
-        <v>92.449000000000012</v>
+        <v>92.448999999999984</v>
       </c>
       <c r="M331" s="72">
         <v>95.354000000000013</v>
       </c>
       <c r="N331" s="72">
-        <v>147.876</v>
+        <v>147.87599999999998</v>
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.25">
@@ -21789,7 +21789,7 @@
         <v>81.980999999999995</v>
       </c>
       <c r="M332" s="72">
-        <v>65.89500000000001</v>
+        <v>65.894999999999996</v>
       </c>
       <c r="N332" s="72">
         <v>102.377</v>
@@ -21830,13 +21830,13 @@
         <v>34.584000000000003</v>
       </c>
       <c r="L333" s="72">
-        <v>68.420999999999992</v>
+        <v>68.421000000000006</v>
       </c>
       <c r="M333" s="72">
-        <v>33.955999999999996</v>
+        <v>33.956000000000003</v>
       </c>
       <c r="N333" s="72">
-        <v>103.005</v>
+        <v>103.00500000000001</v>
       </c>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.25">
@@ -23459,7 +23459,7 @@
         <v>70</v>
       </c>
       <c r="K372" s="72">
-        <v>108.92399999999999</v>
+        <v>108.92400000000001</v>
       </c>
       <c r="L372" s="72">
         <v>0</v>
@@ -23468,7 +23468,7 @@
         <v>0</v>
       </c>
       <c r="N372" s="72">
-        <v>108.92399999999999</v>
+        <v>108.92400000000001</v>
       </c>
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.25">
@@ -23597,7 +23597,7 @@
         <v>32.625000000000007</v>
       </c>
       <c r="M375" s="72">
-        <v>20.857999999999997</v>
+        <v>20.858000000000001</v>
       </c>
       <c r="N375" s="72">
         <v>36.010000000000005</v>
@@ -24971,7 +24971,7 @@
         <v>70</v>
       </c>
       <c r="K408" s="72">
-        <v>124.97300000000001</v>
+        <v>124.973</v>
       </c>
       <c r="L408" s="72">
         <v>0</v>
@@ -24980,7 +24980,7 @@
         <v>0</v>
       </c>
       <c r="N408" s="72">
-        <v>124.97300000000001</v>
+        <v>124.973</v>
       </c>
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.25">
@@ -25062,13 +25062,13 @@
         <v>20.411999999999999</v>
       </c>
       <c r="L410" s="72">
-        <v>99.574999999999989</v>
+        <v>99.575000000000017</v>
       </c>
       <c r="M410" s="72">
         <v>39.983000000000004</v>
       </c>
       <c r="N410" s="72">
-        <v>119.98699999999999</v>
+        <v>119.98700000000002</v>
       </c>
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.25">
@@ -25147,16 +25147,16 @@
         <v>70</v>
       </c>
       <c r="K412" s="72">
-        <v>62.079000000000001</v>
+        <v>62.078999999999994</v>
       </c>
       <c r="L412" s="72">
-        <v>45.690000000000005</v>
+        <v>45.69</v>
       </c>
       <c r="M412" s="72">
         <v>78.578000000000003</v>
       </c>
       <c r="N412" s="72">
-        <v>107.76900000000001</v>
+        <v>107.76899999999999</v>
       </c>
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.25">
@@ -25194,7 +25194,7 @@
         <v>0</v>
       </c>
       <c r="M413" s="72">
-        <v>107.76900000000001</v>
+        <v>107.76899999999999</v>
       </c>
       <c r="N413" s="72">
         <v>0</v>
@@ -26495,16 +26495,16 @@
         <v>70</v>
       </c>
       <c r="K444" s="72">
-        <v>116.63000000000001</v>
+        <v>116.63</v>
       </c>
       <c r="L444" s="72">
-        <v>155.19400000000002</v>
+        <v>155.19399999999996</v>
       </c>
       <c r="M444" s="72">
         <v>36.219000000000001</v>
       </c>
       <c r="N444" s="72">
-        <v>271.82400000000001</v>
+        <v>271.82399999999996</v>
       </c>
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.25">
@@ -26703,7 +26703,7 @@
         <v>70</v>
       </c>
       <c r="K449" s="72">
-        <v>32.683</v>
+        <v>32.683000000000007</v>
       </c>
       <c r="L449" s="72">
         <v>128.82100000000003</v>
@@ -26756,7 +26756,7 @@
         <v>22.721</v>
       </c>
       <c r="N450" s="72">
-        <v>181.54200000000003</v>
+        <v>181.542</v>
       </c>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.25">
@@ -26791,10 +26791,10 @@
         <v>70</v>
       </c>
       <c r="K451" s="72">
-        <v>63.127000000000002</v>
+        <v>63.126999999999995</v>
       </c>
       <c r="L451" s="72">
-        <v>102.964</v>
+        <v>102.96400000000001</v>
       </c>
       <c r="M451" s="72">
         <v>78.578000000000003</v>
@@ -26841,7 +26841,7 @@
         <v>128.321</v>
       </c>
       <c r="M452" s="72">
-        <v>37.770000000000003</v>
+        <v>37.769999999999996</v>
       </c>
       <c r="N452" s="72">
         <v>221.923</v>
@@ -26926,13 +26926,13 @@
         <v>20.968</v>
       </c>
       <c r="L454" s="72">
-        <v>152.62900000000005</v>
+        <v>152.62899999999999</v>
       </c>
       <c r="M454" s="72">
         <v>30.597000000000001</v>
       </c>
       <c r="N454" s="72">
-        <v>173.59700000000004</v>
+        <v>173.59699999999998</v>
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.25">
@@ -26970,7 +26970,7 @@
         <v>0</v>
       </c>
       <c r="M455" s="72">
-        <v>173.59700000000004</v>
+        <v>173.59699999999998</v>
       </c>
       <c r="N455" s="72">
         <v>0</v>
@@ -27046,13 +27046,13 @@
         <v>32.492000000000004</v>
       </c>
       <c r="L457" s="72">
-        <v>124.956</v>
+        <v>124.95599999999997</v>
       </c>
       <c r="M457" s="72">
         <v>10.302</v>
       </c>
       <c r="N457" s="72">
-        <v>157.44800000000001</v>
+        <v>157.44799999999998</v>
       </c>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.25">
@@ -27134,13 +27134,13 @@
         <v>44.650999999999996</v>
       </c>
       <c r="L459" s="72">
-        <v>123.919</v>
+        <v>123.91900000000003</v>
       </c>
       <c r="M459" s="72">
         <v>38.933000000000007</v>
       </c>
       <c r="N459" s="72">
-        <v>168.57</v>
+        <v>168.57000000000002</v>
       </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.25">
@@ -30587,7 +30587,7 @@
         <v>70</v>
       </c>
       <c r="K540" s="72">
-        <v>39.146000000000001</v>
+        <v>39.145999999999994</v>
       </c>
       <c r="L540" s="72">
         <v>137.238</v>
@@ -30634,13 +30634,13 @@
         <v>16.112000000000002</v>
       </c>
       <c r="L541" s="72">
-        <v>47.114999999999995</v>
+        <v>47.114999999999988</v>
       </c>
       <c r="M541" s="72">
         <v>129.26900000000001</v>
       </c>
       <c r="N541" s="72">
-        <v>63.226999999999997</v>
+        <v>63.22699999999999</v>
       </c>
     </row>
     <row r="542" spans="1:14" x14ac:dyDescent="0.25">
@@ -30675,7 +30675,7 @@
         <v>70</v>
       </c>
       <c r="K542" s="72">
-        <v>13.940000000000001</v>
+        <v>13.94</v>
       </c>
       <c r="L542" s="72">
         <v>43.41</v>
@@ -30722,13 +30722,13 @@
         <v>17.519000000000002</v>
       </c>
       <c r="L543" s="72">
-        <v>41.97999999999999</v>
+        <v>41.980000000000004</v>
       </c>
       <c r="M543" s="72">
-        <v>15.370000000000001</v>
+        <v>15.37</v>
       </c>
       <c r="N543" s="72">
-        <v>59.498999999999995</v>
+        <v>59.499000000000002</v>
       </c>
     </row>
     <row r="544" spans="1:14" x14ac:dyDescent="0.25">
@@ -30769,10 +30769,10 @@
         <v>36.113</v>
       </c>
       <c r="M544" s="72">
-        <v>23.385999999999999</v>
+        <v>23.386000000000003</v>
       </c>
       <c r="N544" s="72">
-        <v>38.639000000000003</v>
+        <v>38.638999999999996</v>
       </c>
     </row>
     <row r="545" spans="1:14" x14ac:dyDescent="0.25">
@@ -30810,7 +30810,7 @@
         <v>0</v>
       </c>
       <c r="M545" s="72">
-        <v>38.639000000000003</v>
+        <v>38.638999999999996</v>
       </c>
       <c r="N545" s="72">
         <v>0</v>
@@ -30839,7 +30839,7 @@
         <v>70</v>
       </c>
       <c r="K546" s="72">
-        <v>30.693000000000001</v>
+        <v>30.692999999999998</v>
       </c>
       <c r="L546" s="72">
         <v>0</v>
@@ -30848,7 +30848,7 @@
         <v>0</v>
       </c>
       <c r="N546" s="72">
-        <v>30.693000000000001</v>
+        <v>30.692999999999998</v>
       </c>
     </row>
     <row r="547" spans="1:14" x14ac:dyDescent="0.25">
@@ -30930,13 +30930,13 @@
         <v>57.409000000000006</v>
       </c>
       <c r="L548" s="72">
-        <v>52.265999999999991</v>
+        <v>52.265999999999977</v>
       </c>
       <c r="M548" s="72">
-        <v>44.720999999999997</v>
+        <v>44.721000000000004</v>
       </c>
       <c r="N548" s="72">
-        <v>109.675</v>
+        <v>109.67499999999998</v>
       </c>
     </row>
     <row r="549" spans="1:14" x14ac:dyDescent="0.25">
@@ -30971,10 +30971,10 @@
         <v>70</v>
       </c>
       <c r="K549" s="72">
-        <v>70.920000000000016</v>
+        <v>70.92</v>
       </c>
       <c r="L549" s="72">
-        <v>81.562999999999988</v>
+        <v>81.563000000000002</v>
       </c>
       <c r="M549" s="72">
         <v>28.112000000000002</v>
@@ -31062,13 +31062,13 @@
         <v>7.9559999999999995</v>
       </c>
       <c r="L551" s="72">
-        <v>37.051999999999992</v>
+        <v>37.052000000000007</v>
       </c>
       <c r="M551" s="72">
         <v>20.752000000000002</v>
       </c>
       <c r="N551" s="72">
-        <v>45.007999999999996</v>
+        <v>45.008000000000003</v>
       </c>
     </row>
     <row r="552" spans="1:14" x14ac:dyDescent="0.25">
@@ -31150,13 +31150,13 @@
         <v>2.7389999999999999</v>
       </c>
       <c r="L553" s="72">
-        <v>25.798000000000005</v>
+        <v>25.798000000000002</v>
       </c>
       <c r="M553" s="72">
         <v>22.356000000000002</v>
       </c>
       <c r="N553" s="72">
-        <v>28.537000000000006</v>
+        <v>28.537000000000003</v>
       </c>
     </row>
     <row r="554" spans="1:14" x14ac:dyDescent="0.25">
@@ -31223,7 +31223,7 @@
         <v>70</v>
       </c>
       <c r="K555" s="72">
-        <v>34.161999999999999</v>
+        <v>34.162000000000006</v>
       </c>
       <c r="L555" s="72">
         <v>0</v>
@@ -31232,7 +31232,7 @@
         <v>0</v>
       </c>
       <c r="N555" s="72">
-        <v>34.161999999999999</v>
+        <v>34.162000000000006</v>
       </c>
     </row>
     <row r="556" spans="1:14" x14ac:dyDescent="0.25">
@@ -31270,13 +31270,13 @@
         <v>29.752000000000002</v>
       </c>
       <c r="L556" s="72">
-        <v>30.486000000000004</v>
+        <v>30.485999999999997</v>
       </c>
       <c r="M556" s="72">
         <v>3.6760000000000002</v>
       </c>
       <c r="N556" s="72">
-        <v>60.238000000000007</v>
+        <v>60.238</v>
       </c>
     </row>
     <row r="557" spans="1:14" x14ac:dyDescent="0.25">
@@ -31314,13 +31314,13 @@
         <v>26.961999999999996</v>
       </c>
       <c r="L557" s="72">
-        <v>47.807000000000009</v>
+        <v>47.806999999999995</v>
       </c>
       <c r="M557" s="72">
-        <v>12.431000000000001</v>
+        <v>12.430999999999999</v>
       </c>
       <c r="N557" s="72">
-        <v>74.769000000000005</v>
+        <v>74.768999999999991</v>
       </c>
     </row>
     <row r="558" spans="1:14" x14ac:dyDescent="0.25">
@@ -34811,16 +34811,16 @@
         <v>70</v>
       </c>
       <c r="K639" s="72">
-        <v>47.089999999999996</v>
+        <v>47.09</v>
       </c>
       <c r="L639" s="72">
-        <v>187.76300000000003</v>
+        <v>187.76300000000001</v>
       </c>
       <c r="M639" s="72">
-        <v>43.980999999999995</v>
+        <v>43.981000000000009</v>
       </c>
       <c r="N639" s="72">
-        <v>234.85300000000004</v>
+        <v>234.85300000000001</v>
       </c>
     </row>
     <row r="640" spans="1:14" x14ac:dyDescent="0.25">
@@ -34946,13 +34946,13 @@
         <v>76.608000000000004</v>
       </c>
       <c r="L642" s="72">
-        <v>105.02500000000001</v>
+        <v>105.02499999999998</v>
       </c>
       <c r="M642" s="72">
         <v>18.893000000000001</v>
       </c>
       <c r="N642" s="72">
-        <v>181.63300000000001</v>
+        <v>181.63299999999998</v>
       </c>
     </row>
     <row r="643" spans="1:14" x14ac:dyDescent="0.25">
@@ -35107,10 +35107,10 @@
         <v>70</v>
       </c>
       <c r="K646" s="72">
-        <v>98.424999999999997</v>
+        <v>98.425000000000011</v>
       </c>
       <c r="L646" s="72">
-        <v>83.385000000000005</v>
+        <v>83.384999999999991</v>
       </c>
       <c r="M646" s="72">
         <v>4.6310000000000002</v>
@@ -35151,16 +35151,16 @@
         <v>70</v>
       </c>
       <c r="K647" s="72">
-        <v>23.873999999999999</v>
+        <v>23.874000000000002</v>
       </c>
       <c r="L647" s="72">
-        <v>125.37000000000003</v>
+        <v>125.37</v>
       </c>
       <c r="M647" s="72">
         <v>56.44</v>
       </c>
       <c r="N647" s="72">
-        <v>149.24400000000003</v>
+        <v>149.244</v>
       </c>
     </row>
     <row r="648" spans="1:14" x14ac:dyDescent="0.25">
@@ -37206,13 +37206,13 @@
         <v>30.554000000000002</v>
       </c>
       <c r="L695" s="72">
-        <v>99.635000000000019</v>
+        <v>99.634999999999991</v>
       </c>
       <c r="M695" s="72">
         <v>22.398</v>
       </c>
       <c r="N695" s="72">
-        <v>130.18900000000002</v>
+        <v>130.18899999999999</v>
       </c>
     </row>
     <row r="696" spans="1:14" x14ac:dyDescent="0.25">
@@ -37256,7 +37256,7 @@
         <v>30.629000000000005</v>
       </c>
       <c r="N696" s="72">
-        <v>125.95400000000001</v>
+        <v>125.95399999999999</v>
       </c>
     </row>
     <row r="697" spans="1:14" x14ac:dyDescent="0.25">
@@ -37294,13 +37294,13 @@
         <v>5.7370000000000001</v>
       </c>
       <c r="L697" s="72">
-        <v>55.141999999999996</v>
+        <v>55.14200000000001</v>
       </c>
       <c r="M697" s="72">
         <v>70.811999999999998</v>
       </c>
       <c r="N697" s="72">
-        <v>60.878999999999998</v>
+        <v>60.879000000000012</v>
       </c>
     </row>
     <row r="698" spans="1:14" x14ac:dyDescent="0.25">
@@ -37338,7 +37338,7 @@
         <v>0</v>
       </c>
       <c r="M698" s="72">
-        <v>60.878999999999998</v>
+        <v>60.879000000000012</v>
       </c>
       <c r="N698" s="72">
         <v>0</v>
@@ -37367,7 +37367,7 @@
         <v>70</v>
       </c>
       <c r="K699" s="72">
-        <v>102.46600000000001</v>
+        <v>102.46599999999999</v>
       </c>
       <c r="L699" s="72">
         <v>0</v>
@@ -37376,7 +37376,7 @@
         <v>0</v>
       </c>
       <c r="N699" s="72">
-        <v>102.46600000000001</v>
+        <v>102.46599999999999</v>
       </c>
     </row>
     <row r="700" spans="1:14" x14ac:dyDescent="0.25">
@@ -37414,13 +37414,13 @@
         <v>82.820999999999998</v>
       </c>
       <c r="L700" s="72">
-        <v>79.288000000000011</v>
+        <v>79.287999999999982</v>
       </c>
       <c r="M700" s="72">
         <v>23.178000000000001</v>
       </c>
       <c r="N700" s="72">
-        <v>162.10900000000001</v>
+        <v>162.10899999999998</v>
       </c>
     </row>
     <row r="701" spans="1:14" x14ac:dyDescent="0.25">
@@ -37455,7 +37455,7 @@
         <v>70</v>
       </c>
       <c r="K701" s="72">
-        <v>23.070999999999998</v>
+        <v>23.071000000000002</v>
       </c>
       <c r="L701" s="72">
         <v>129.98400000000001</v>
@@ -37546,13 +37546,13 @@
         <v>27.621000000000002</v>
       </c>
       <c r="L703" s="72">
-        <v>46.758999999999993</v>
+        <v>46.759000000000007</v>
       </c>
       <c r="M703" s="72">
         <v>115.50999999999999</v>
       </c>
       <c r="N703" s="72">
-        <v>74.38</v>
+        <v>74.38000000000001</v>
       </c>
     </row>
     <row r="704" spans="1:14" x14ac:dyDescent="0.25">
@@ -39469,7 +39469,7 @@
         <v>102.64699999999999</v>
       </c>
       <c r="M748" s="72">
-        <v>15.964</v>
+        <v>15.963999999999999</v>
       </c>
       <c r="N748" s="72">
         <v>122.386</v>
@@ -39507,13 +39507,13 @@
         <v>70</v>
       </c>
       <c r="K749" s="72">
-        <v>33.695</v>
+        <v>33.694999999999993</v>
       </c>
       <c r="L749" s="72">
-        <v>44.252000000000002</v>
+        <v>44.25200000000001</v>
       </c>
       <c r="M749" s="72">
-        <v>78.134</v>
+        <v>78.134000000000015</v>
       </c>
       <c r="N749" s="72">
         <v>77.947000000000003</v>
@@ -39583,7 +39583,7 @@
         <v>70</v>
       </c>
       <c r="K751" s="72">
-        <v>70.123000000000005</v>
+        <v>70.12299999999999</v>
       </c>
       <c r="L751" s="72">
         <v>0</v>
@@ -39592,7 +39592,7 @@
         <v>0</v>
       </c>
       <c r="N751" s="72">
-        <v>70.123000000000005</v>
+        <v>70.12299999999999</v>
       </c>
     </row>
     <row r="752" spans="1:14" x14ac:dyDescent="0.25">
@@ -39671,13 +39671,13 @@
         <v>70</v>
       </c>
       <c r="K753" s="72">
-        <v>34.900000000000006</v>
+        <v>34.9</v>
       </c>
       <c r="L753" s="72">
         <v>89.670999999999992</v>
       </c>
       <c r="M753" s="72">
-        <v>28.217000000000002</v>
+        <v>28.216999999999999</v>
       </c>
       <c r="N753" s="72">
         <v>124.571</v>
@@ -39759,16 +39759,16 @@
         <v>70</v>
       </c>
       <c r="K755" s="72">
-        <v>79.957000000000022</v>
+        <v>79.957000000000008</v>
       </c>
       <c r="L755" s="72">
-        <v>56.523999999999972</v>
+        <v>56.524000000000015</v>
       </c>
       <c r="M755" s="72">
         <v>19.972000000000001</v>
       </c>
       <c r="N755" s="72">
-        <v>136.48099999999999</v>
+        <v>136.48100000000002</v>
       </c>
     </row>
     <row r="756" spans="1:14" x14ac:dyDescent="0.25">
@@ -39803,10 +39803,10 @@
         <v>70</v>
       </c>
       <c r="K756" s="72">
-        <v>16.968</v>
+        <v>16.967999999999996</v>
       </c>
       <c r="L756" s="72">
-        <v>54.448999999999998</v>
+        <v>54.449000000000005</v>
       </c>
       <c r="M756" s="72">
         <v>82.032000000000011</v>
@@ -39970,13 +39970,13 @@
         <v>36.988</v>
       </c>
       <c r="L760" s="72">
-        <v>66.207000000000008</v>
+        <v>66.207000000000022</v>
       </c>
       <c r="M760" s="72">
         <v>46.141999999999996</v>
       </c>
       <c r="N760" s="72">
-        <v>103.19500000000001</v>
+        <v>103.19500000000002</v>
       </c>
     </row>
     <row r="761" spans="1:14" x14ac:dyDescent="0.25">
@@ -40014,13 +40014,13 @@
         <v>19.823</v>
       </c>
       <c r="L761" s="72">
-        <v>32.839999999999996</v>
+        <v>32.840000000000011</v>
       </c>
       <c r="M761" s="72">
-        <v>70.355000000000018</v>
+        <v>70.355000000000004</v>
       </c>
       <c r="N761" s="72">
-        <v>52.662999999999997</v>
+        <v>52.663000000000011</v>
       </c>
     </row>
     <row r="762" spans="1:14" x14ac:dyDescent="0.25">
@@ -42634,13 +42634,13 @@
         <v>38.234999999999999</v>
       </c>
       <c r="L823" s="72">
-        <v>151.39100000000002</v>
+        <v>151.39099999999996</v>
       </c>
       <c r="M823" s="72">
         <v>46.093999999999994</v>
       </c>
       <c r="N823" s="72">
-        <v>189.626</v>
+        <v>189.62599999999998</v>
       </c>
     </row>
     <row r="824" spans="1:14" x14ac:dyDescent="0.25">
@@ -42675,16 +42675,16 @@
         <v>70</v>
       </c>
       <c r="K824" s="72">
-        <v>29.773000000000003</v>
+        <v>29.772999999999996</v>
       </c>
       <c r="L824" s="72">
-        <v>57.119000000000007</v>
+        <v>57.119</v>
       </c>
       <c r="M824" s="72">
         <v>132.50700000000001</v>
       </c>
       <c r="N824" s="72">
-        <v>86.89200000000001</v>
+        <v>86.891999999999996</v>
       </c>
     </row>
     <row r="825" spans="1:14" x14ac:dyDescent="0.25">
@@ -42719,16 +42719,16 @@
         <v>70</v>
       </c>
       <c r="K825" s="72">
-        <v>101.53799999999998</v>
+        <v>101.53800000000001</v>
       </c>
       <c r="L825" s="72">
         <v>65.225999999999999</v>
       </c>
       <c r="M825" s="72">
-        <v>21.666</v>
+        <v>21.666000000000004</v>
       </c>
       <c r="N825" s="72">
-        <v>166.76399999999998</v>
+        <v>166.76400000000001</v>
       </c>
     </row>
     <row r="826" spans="1:14" x14ac:dyDescent="0.25">
@@ -42839,7 +42839,7 @@
         <v>70</v>
       </c>
       <c r="K828" s="72">
-        <v>65.322000000000017</v>
+        <v>65.322000000000003</v>
       </c>
       <c r="L828" s="72">
         <v>0</v>
@@ -42848,7 +42848,7 @@
         <v>0</v>
       </c>
       <c r="N828" s="72">
-        <v>65.322000000000017</v>
+        <v>65.322000000000003</v>
       </c>
     </row>
     <row r="829" spans="1:14" x14ac:dyDescent="0.25">
@@ -42883,16 +42883,16 @@
         <v>70</v>
       </c>
       <c r="K829" s="72">
-        <v>92.263000000000005</v>
+        <v>92.262999999999991</v>
       </c>
       <c r="L829" s="72">
-        <v>49.367999999999995</v>
+        <v>49.368000000000038</v>
       </c>
       <c r="M829" s="72">
         <v>15.954000000000001</v>
       </c>
       <c r="N829" s="72">
-        <v>141.631</v>
+        <v>141.63100000000003</v>
       </c>
     </row>
     <row r="830" spans="1:14" x14ac:dyDescent="0.25">
@@ -42930,13 +42930,13 @@
         <v>72.373999999999995</v>
       </c>
       <c r="L830" s="72">
-        <v>87.609999999999985</v>
+        <v>87.610000000000042</v>
       </c>
       <c r="M830" s="72">
         <v>54.021000000000001</v>
       </c>
       <c r="N830" s="72">
-        <v>159.98399999999998</v>
+        <v>159.98400000000004</v>
       </c>
     </row>
     <row r="831" spans="1:14" x14ac:dyDescent="0.25">
@@ -42974,13 +42974,13 @@
         <v>42.980000000000004</v>
       </c>
       <c r="L831" s="72">
-        <v>49.091000000000022</v>
+        <v>49.091000000000008</v>
       </c>
       <c r="M831" s="72">
         <v>110.893</v>
       </c>
       <c r="N831" s="72">
-        <v>92.071000000000026</v>
+        <v>92.071000000000012</v>
       </c>
     </row>
     <row r="832" spans="1:14" x14ac:dyDescent="0.25">
@@ -43062,13 +43062,13 @@
         <v>7.7430000000000003</v>
       </c>
       <c r="L833" s="72">
-        <v>31.589999999999996</v>
+        <v>31.590000000000003</v>
       </c>
       <c r="M833" s="72">
-        <v>86.387999999999991</v>
+        <v>86.388000000000005</v>
       </c>
       <c r="N833" s="72">
-        <v>39.332999999999998</v>
+        <v>39.333000000000006</v>
       </c>
     </row>
     <row r="834" spans="1:14" x14ac:dyDescent="0.25">
@@ -43106,7 +43106,7 @@
         <v>0</v>
       </c>
       <c r="M834" s="72">
-        <v>39.332999999999998</v>
+        <v>39.333000000000006</v>
       </c>
       <c r="N834" s="72">
         <v>0</v>
@@ -45931,16 +45931,16 @@
         <v>70</v>
       </c>
       <c r="K901" s="72">
-        <v>50.408000000000001</v>
+        <v>50.407999999999994</v>
       </c>
       <c r="L901" s="72">
-        <v>57.664999999999992</v>
+        <v>57.665000000000013</v>
       </c>
       <c r="M901" s="72">
         <v>170.767</v>
       </c>
       <c r="N901" s="72">
-        <v>108.07299999999999</v>
+        <v>108.07300000000001</v>
       </c>
     </row>
     <row r="902" spans="1:14" x14ac:dyDescent="0.25">
@@ -45978,13 +45978,13 @@
         <v>83.483000000000004</v>
       </c>
       <c r="L902" s="72">
-        <v>80.945999999999998</v>
+        <v>80.94599999999997</v>
       </c>
       <c r="M902" s="72">
         <v>27.127000000000002</v>
       </c>
       <c r="N902" s="72">
-        <v>164.429</v>
+        <v>164.42899999999997</v>
       </c>
     </row>
     <row r="903" spans="1:14" x14ac:dyDescent="0.25">
@@ -46019,7 +46019,7 @@
         <v>70</v>
       </c>
       <c r="K903" s="72">
-        <v>9.9500000000000011</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="L903" s="72">
         <v>78.387999999999991</v>
@@ -46142,13 +46142,13 @@
         <v>66.418000000000006</v>
       </c>
       <c r="L906" s="72">
-        <v>83.84699999999998</v>
+        <v>83.847000000000008</v>
       </c>
       <c r="M906" s="72">
         <v>19.306000000000001</v>
       </c>
       <c r="N906" s="72">
-        <v>150.26499999999999</v>
+        <v>150.26500000000001</v>
       </c>
     </row>
     <row r="907" spans="1:14" x14ac:dyDescent="0.25">
@@ -47962,13 +47962,13 @@
         <v>36.58</v>
       </c>
       <c r="L949" s="72">
-        <v>100.55399999999996</v>
+        <v>100.55400000000002</v>
       </c>
       <c r="M949" s="72">
-        <v>44.588999999999992</v>
+        <v>44.588999999999999</v>
       </c>
       <c r="N949" s="72">
-        <v>137.13399999999996</v>
+        <v>137.13400000000001</v>
       </c>
     </row>
     <row r="950" spans="1:14" x14ac:dyDescent="0.25">
@@ -48003,16 +48003,16 @@
         <v>70</v>
       </c>
       <c r="K950" s="72">
-        <v>41.017000000000003</v>
+        <v>41.016999999999996</v>
       </c>
       <c r="L950" s="72">
-        <v>46.659999999999989</v>
+        <v>46.660000000000025</v>
       </c>
       <c r="M950" s="72">
         <v>90.474000000000004</v>
       </c>
       <c r="N950" s="72">
-        <v>87.676999999999992</v>
+        <v>87.677000000000021</v>
       </c>
     </row>
     <row r="951" spans="1:14" x14ac:dyDescent="0.25">
@@ -48047,16 +48047,16 @@
         <v>70</v>
       </c>
       <c r="K951" s="72">
-        <v>50.033999999999999</v>
+        <v>50.034000000000006</v>
       </c>
       <c r="L951" s="72">
-        <v>68.97799999999998</v>
+        <v>68.977999999999994</v>
       </c>
       <c r="M951" s="72">
         <v>18.698999999999998</v>
       </c>
       <c r="N951" s="72">
-        <v>119.01199999999999</v>
+        <v>119.012</v>
       </c>
     </row>
     <row r="952" spans="1:14" x14ac:dyDescent="0.25">
@@ -49398,13 +49398,13 @@
         <v>42.013999999999996</v>
       </c>
       <c r="L983" s="72">
-        <v>64.460000000000008</v>
+        <v>64.459999999999994</v>
       </c>
       <c r="M983" s="72">
         <v>15.030000000000001</v>
       </c>
       <c r="N983" s="72">
-        <v>106.474</v>
+        <v>106.47399999999999</v>
       </c>
     </row>
     <row r="984" spans="1:14" x14ac:dyDescent="0.25">
@@ -50643,16 +50643,16 @@
         <v>70</v>
       </c>
       <c r="K1013" s="72">
-        <v>127.44099999999997</v>
+        <v>127.441</v>
       </c>
       <c r="L1013" s="72">
-        <v>110.46000000000001</v>
+        <v>110.46000000000004</v>
       </c>
       <c r="M1013" s="72">
-        <v>14.858000000000001</v>
+        <v>14.858000000000002</v>
       </c>
       <c r="N1013" s="72">
-        <v>237.90099999999998</v>
+        <v>237.90100000000004</v>
       </c>
     </row>
     <row r="1014" spans="1:14" x14ac:dyDescent="0.25">
@@ -50687,13 +50687,13 @@
         <v>70</v>
       </c>
       <c r="K1014" s="72">
-        <v>19.523</v>
+        <v>19.523000000000003</v>
       </c>
       <c r="L1014" s="72">
         <v>68.638000000000005</v>
       </c>
       <c r="M1014" s="72">
-        <v>169.26299999999998</v>
+        <v>169.26300000000003</v>
       </c>
       <c r="N1014" s="72">
         <v>88.161000000000001</v>
@@ -52187,10 +52187,10 @@
         <v>70</v>
       </c>
       <c r="K1050" s="72">
-        <v>34.936000000000007</v>
+        <v>34.935999999999993</v>
       </c>
       <c r="L1050" s="72">
-        <v>12.402999999999992</v>
+        <v>12.403000000000006</v>
       </c>
       <c r="M1050" s="72">
         <v>23.402999999999999</v>
@@ -52234,13 +52234,13 @@
         <v>25.829000000000001</v>
       </c>
       <c r="L1051" s="72">
-        <v>36.080999999999989</v>
+        <v>36.080999999999996</v>
       </c>
       <c r="M1051" s="72">
         <v>11.257999999999999</v>
       </c>
       <c r="N1051" s="72">
-        <v>61.909999999999989</v>
+        <v>61.91</v>
       </c>
     </row>
     <row r="1052" spans="1:14" x14ac:dyDescent="0.25">
@@ -52275,7 +52275,7 @@
         <v>70</v>
       </c>
       <c r="K1052" s="72">
-        <v>13.195000000000002</v>
+        <v>13.195</v>
       </c>
       <c r="L1052" s="72">
         <v>39.300000000000004</v>
@@ -52319,7 +52319,7 @@
         <v>70</v>
       </c>
       <c r="K1053" s="72">
-        <v>5.6980000000000004</v>
+        <v>5.6979999999999995</v>
       </c>
       <c r="L1053" s="72">
         <v>31.32</v>
@@ -53890,7 +53890,7 @@
         <v>0</v>
       </c>
       <c r="M1090" s="72">
-        <v>26.531999999999996</v>
+        <v>26.532</v>
       </c>
       <c r="N1090" s="72">
         <v>0</v>
@@ -53963,16 +53963,16 @@
         <v>70</v>
       </c>
       <c r="K1092" s="72">
-        <v>112.10599999999999</v>
+        <v>112.10600000000001</v>
       </c>
       <c r="L1092" s="72">
-        <v>7.0549999999999926</v>
+        <v>7.0549999999999642</v>
       </c>
       <c r="M1092" s="72">
         <v>2.5259999999999998</v>
       </c>
       <c r="N1092" s="72">
-        <v>119.16099999999999</v>
+        <v>119.16099999999997</v>
       </c>
     </row>
     <row r="1093" spans="1:14" x14ac:dyDescent="0.25">
@@ -54010,13 +54010,13 @@
         <v>37.991</v>
       </c>
       <c r="L1093" s="72">
-        <v>92.628000000000029</v>
+        <v>92.627999999999972</v>
       </c>
       <c r="M1093" s="72">
         <v>26.533000000000001</v>
       </c>
       <c r="N1093" s="72">
-        <v>130.61900000000003</v>
+        <v>130.61899999999997</v>
       </c>
     </row>
     <row r="1094" spans="1:14" x14ac:dyDescent="0.25">
@@ -54051,16 +54051,16 @@
         <v>70</v>
       </c>
       <c r="K1094" s="72">
-        <v>40.142999999999994</v>
+        <v>40.143000000000001</v>
       </c>
       <c r="L1094" s="72">
-        <v>96.543000000000035</v>
+        <v>96.543000000000006</v>
       </c>
       <c r="M1094" s="72">
-        <v>34.076000000000001</v>
+        <v>34.076000000000008</v>
       </c>
       <c r="N1094" s="72">
-        <v>136.68600000000004</v>
+        <v>136.68600000000001</v>
       </c>
     </row>
     <row r="1095" spans="1:14" x14ac:dyDescent="0.25">
@@ -54142,13 +54142,13 @@
         <v>3.867</v>
       </c>
       <c r="L1096" s="72">
-        <v>14.279</v>
+        <v>14.278999999999996</v>
       </c>
       <c r="M1096" s="72">
         <v>118.482</v>
       </c>
       <c r="N1096" s="72">
-        <v>18.146000000000001</v>
+        <v>18.145999999999997</v>
       </c>
     </row>
     <row r="1097" spans="1:14" x14ac:dyDescent="0.25">
@@ -55695,7 +55695,7 @@
         <v>70</v>
       </c>
       <c r="K1133" s="72">
-        <v>17.873999999999999</v>
+        <v>17.874000000000002</v>
       </c>
       <c r="L1133" s="72">
         <v>0</v>
@@ -55704,7 +55704,7 @@
         <v>0</v>
       </c>
       <c r="N1133" s="72">
-        <v>17.873999999999999</v>
+        <v>17.874000000000002</v>
       </c>
     </row>
     <row r="1134" spans="1:14" x14ac:dyDescent="0.25">
@@ -55739,10 +55739,10 @@
         <v>70</v>
       </c>
       <c r="K1134" s="72">
-        <v>65.737000000000009</v>
+        <v>65.736999999999995</v>
       </c>
       <c r="L1134" s="72">
-        <v>13.605000000000004</v>
+        <v>13.605000000000018</v>
       </c>
       <c r="M1134" s="72">
         <v>4.2690000000000001</v>
@@ -55871,13 +55871,13 @@
         <v>70</v>
       </c>
       <c r="K1137" s="72">
-        <v>15.536999999999999</v>
+        <v>15.537000000000001</v>
       </c>
       <c r="L1137" s="72">
         <v>31.565000000000005</v>
       </c>
       <c r="M1137" s="72">
-        <v>42.523000000000003</v>
+        <v>42.522999999999996</v>
       </c>
       <c r="N1137" s="72">
         <v>47.102000000000004</v>
@@ -55921,7 +55921,7 @@
         <v>13.726000000000003</v>
       </c>
       <c r="M1138" s="72">
-        <v>33.376000000000005</v>
+        <v>33.375999999999998</v>
       </c>
       <c r="N1138" s="72">
         <v>19.151000000000003</v>
@@ -57310,13 +57310,13 @@
         <v>43.216999999999999</v>
       </c>
       <c r="L1171" s="72">
-        <v>71.326999999999998</v>
+        <v>71.327000000000012</v>
       </c>
       <c r="M1171" s="72">
         <v>18.957999999999998</v>
       </c>
       <c r="N1171" s="72">
-        <v>114.544</v>
+        <v>114.54400000000001</v>
       </c>
     </row>
     <row r="1172" spans="1:14" x14ac:dyDescent="0.25">
@@ -57351,10 +57351,10 @@
         <v>70</v>
       </c>
       <c r="K1172" s="72">
-        <v>54.876999999999995</v>
+        <v>54.877000000000002</v>
       </c>
       <c r="L1172" s="72">
-        <v>87.064000000000007</v>
+        <v>87.063999999999993</v>
       </c>
       <c r="M1172" s="72">
         <v>27.48</v>
@@ -57398,13 +57398,13 @@
         <v>26.950000000000003</v>
       </c>
       <c r="L1173" s="72">
-        <v>84.62</v>
+        <v>84.61999999999999</v>
       </c>
       <c r="M1173" s="72">
         <v>57.320999999999998</v>
       </c>
       <c r="N1173" s="72">
-        <v>111.57000000000001</v>
+        <v>111.57</v>
       </c>
     </row>
     <row r="1174" spans="1:14" x14ac:dyDescent="0.25">
@@ -57442,7 +57442,7 @@
         <v>0</v>
       </c>
       <c r="M1174" s="72">
-        <v>111.57000000000001</v>
+        <v>111.57</v>
       </c>
       <c r="N1174" s="72">
         <v>0</v>
@@ -57518,13 +57518,13 @@
         <v>40.244</v>
       </c>
       <c r="L1176" s="72">
-        <v>14.609000000000002</v>
+        <v>14.608999999999995</v>
       </c>
       <c r="M1176" s="72">
         <v>4.4610000000000003</v>
       </c>
       <c r="N1176" s="72">
-        <v>54.853000000000002</v>
+        <v>54.852999999999994</v>
       </c>
     </row>
     <row r="1177" spans="1:14" x14ac:dyDescent="0.25">
@@ -57559,10 +57559,10 @@
         <v>70</v>
       </c>
       <c r="K1177" s="72">
-        <v>36.150999999999996</v>
+        <v>36.151000000000003</v>
       </c>
       <c r="L1177" s="72">
-        <v>34.575000000000003</v>
+        <v>34.574999999999996</v>
       </c>
       <c r="M1177" s="72">
         <v>20.277999999999999</v>
@@ -61702,13 +61702,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="72">
-        <v>206.26300000000001</v>
+        <v>206.26300000000003</v>
       </c>
       <c r="H6" s="72">
         <v>280</v>
       </c>
       <c r="I6" s="76">
-        <v>0.73665357142857146</v>
+        <v>0.73665357142857157</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -61760,13 +61760,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="72">
-        <v>60.687250000000041</v>
+        <v>60.68725000000002</v>
       </c>
       <c r="H8" s="72">
         <v>70</v>
       </c>
       <c r="I8" s="76">
-        <v>0.86696071428571486</v>
+        <v>0.86696071428571453</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -61789,13 +61789,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="72">
-        <v>15.392250000000001</v>
+        <v>15.392250000000002</v>
       </c>
       <c r="H9" s="72">
         <v>70</v>
       </c>
       <c r="I9" s="76">
-        <v>0.21988928571428573</v>
+        <v>0.21988928571428576</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -61818,13 +61818,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>237.0867499999998</v>
+        <v>237.08674999999988</v>
       </c>
       <c r="H10" s="72">
         <v>280</v>
       </c>
       <c r="I10" s="76">
-        <v>0.84673839285714214</v>
+        <v>0.84673839285714247</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -61847,13 +61847,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="72">
-        <v>62.002499999999991</v>
+        <v>62.002500000000012</v>
       </c>
       <c r="H11" s="72">
         <v>280</v>
       </c>
       <c r="I11" s="76">
-        <v>0.22143749999999995</v>
+        <v>0.22143750000000004</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -61934,13 +61934,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="72">
-        <v>72.571250000000006</v>
+        <v>72.571249999999992</v>
       </c>
       <c r="H14" s="72">
         <v>140</v>
       </c>
       <c r="I14" s="76">
-        <v>0.5183660714285715</v>
+        <v>0.51836607142857138</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -61963,13 +61963,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="72">
-        <v>89.494749999999996</v>
+        <v>89.494750000000025</v>
       </c>
       <c r="H15" s="72">
         <v>140</v>
       </c>
       <c r="I15" s="76">
-        <v>0.63924821428571421</v>
+        <v>0.63924821428571443</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -61992,13 +61992,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>330.30924999999991</v>
+        <v>330.30924999999985</v>
       </c>
       <c r="H16" s="72">
         <v>350</v>
       </c>
       <c r="I16" s="76">
-        <v>0.94374071428571404</v>
+        <v>0.94374071428571382</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -62050,13 +62050,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="72">
-        <v>40.899999999999991</v>
+        <v>40.9</v>
       </c>
       <c r="H18" s="72">
         <v>70</v>
       </c>
       <c r="I18" s="76">
-        <v>0.58428571428571419</v>
+        <v>0.5842857142857143</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -62108,13 +62108,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="72">
-        <v>28.114500000000007</v>
+        <v>28.11450000000001</v>
       </c>
       <c r="H20" s="72">
         <v>70</v>
       </c>
       <c r="I20" s="76">
-        <v>0.40163571428571437</v>
+        <v>0.40163571428571443</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -62137,13 +62137,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="72">
-        <v>22.820999999999994</v>
+        <v>22.820999999999998</v>
       </c>
       <c r="H21" s="72">
         <v>70</v>
       </c>
       <c r="I21" s="76">
-        <v>0.32601428571428565</v>
+        <v>0.3260142857142857</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -62224,13 +62224,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="72">
-        <v>53.932500000000026</v>
+        <v>53.932500000000005</v>
       </c>
       <c r="H24" s="72">
         <v>140</v>
       </c>
       <c r="I24" s="76">
-        <v>0.38523214285714302</v>
+        <v>0.38523214285714291</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -62282,13 +62282,13 @@
         <v>0</v>
       </c>
       <c r="G26" s="72">
-        <v>65.81049999999999</v>
+        <v>65.810500000000062</v>
       </c>
       <c r="H26" s="72">
         <v>70</v>
       </c>
       <c r="I26" s="76">
-        <v>0.94014999999999982</v>
+        <v>0.94015000000000093</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -62311,7 +62311,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="72">
-        <v>22.693500000000004</v>
+        <v>22.6935</v>
       </c>
       <c r="H27" s="72">
         <v>70</v>
@@ -62340,13 +62340,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="72">
-        <v>110.22174999999994</v>
+        <v>110.22175</v>
       </c>
       <c r="H28" s="72">
         <v>140</v>
       </c>
       <c r="I28" s="76">
-        <v>0.78729821428571389</v>
+        <v>0.78729821428571434</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -62369,13 +62369,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="72">
-        <v>88.475749999999991</v>
+        <v>88.475750000000019</v>
       </c>
       <c r="H29" s="72">
         <v>140</v>
       </c>
       <c r="I29" s="76">
-        <v>0.63196964285714274</v>
+        <v>0.63196964285714297</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -62398,13 +62398,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="72">
-        <v>57.086000000000006</v>
+        <v>57.086000000000013</v>
       </c>
       <c r="H30" s="72">
         <v>140</v>
       </c>
       <c r="I30" s="76">
-        <v>0.40775714285714287</v>
+        <v>0.40775714285714293</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -62427,13 +62427,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="72">
-        <v>24.407250000000001</v>
+        <v>24.407249999999998</v>
       </c>
       <c r="H31" s="72">
         <v>140</v>
       </c>
       <c r="I31" s="76">
-        <v>0.17433750000000001</v>
+        <v>0.17433749999999998</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -62456,13 +62456,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>81.921499999999995</v>
+        <v>81.921500000000009</v>
       </c>
       <c r="H32" s="72">
         <v>140</v>
       </c>
       <c r="I32" s="76">
-        <v>0.58515357142857138</v>
+        <v>0.5851535714285715</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -62485,13 +62485,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="72">
-        <v>145.09374999999994</v>
+        <v>145.09375</v>
       </c>
       <c r="H33" s="72">
         <v>140</v>
       </c>
       <c r="I33" s="76">
-        <v>1.0363839285714282</v>
+        <v>1.0363839285714285</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -62514,13 +62514,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>588.88674999999989</v>
+        <v>588.88674999999944</v>
       </c>
       <c r="H34" s="72">
         <v>630</v>
       </c>
       <c r="I34" s="76">
-        <v>0.93474087301587283</v>
+        <v>0.93474087301587216</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -62543,13 +62543,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>240.32424999999998</v>
+        <v>240.32424999999995</v>
       </c>
       <c r="H35" s="72">
         <v>630</v>
       </c>
       <c r="I35" s="76">
-        <v>0.38146706349206344</v>
+        <v>0.38146706349206339</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -62572,13 +62572,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="72">
-        <v>50.310000000000016</v>
+        <v>50.31</v>
       </c>
       <c r="H36" s="72">
         <v>140</v>
       </c>
       <c r="I36" s="76">
-        <v>0.35935714285714299</v>
+        <v>0.35935714285714287</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -62601,13 +62601,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="72">
-        <v>75.526749999999979</v>
+        <v>75.526749999999993</v>
       </c>
       <c r="H37" s="72">
         <v>140</v>
       </c>
       <c r="I37" s="76">
-        <v>0.53947678571428559</v>
+        <v>0.5394767857142857</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -62630,13 +62630,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="72">
-        <v>64.27300000000001</v>
+        <v>64.272999999999996</v>
       </c>
       <c r="H38" s="72">
         <v>140</v>
       </c>
       <c r="I38" s="76">
-        <v>0.45909285714285719</v>
+        <v>0.45909285714285714</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -62659,13 +62659,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="72">
-        <v>58.217500000000022</v>
+        <v>58.217500000000001</v>
       </c>
       <c r="H39" s="72">
         <v>140</v>
       </c>
       <c r="I39" s="76">
-        <v>0.41583928571428586</v>
+        <v>0.41583928571428574</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -62688,13 +62688,13 @@
         <v>0</v>
       </c>
       <c r="G40" s="72">
-        <v>8.9102500000000013</v>
+        <v>8.9102499999999996</v>
       </c>
       <c r="H40" s="72">
         <v>70</v>
       </c>
       <c r="I40" s="76">
-        <v>0.12728928571428574</v>
+        <v>0.12728928571428572</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -62717,13 +62717,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="72">
-        <v>18.689749999999997</v>
+        <v>18.68975</v>
       </c>
       <c r="H41" s="72">
         <v>70</v>
       </c>
       <c r="I41" s="76">
-        <v>0.26699642857142852</v>
+        <v>0.26699642857142858</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -62746,13 +62746,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="72">
-        <v>112.91775000000003</v>
+        <v>112.9177500000001</v>
       </c>
       <c r="H42" s="72">
         <v>210</v>
       </c>
       <c r="I42" s="76">
-        <v>0.5377035714285715</v>
+        <v>0.53770357142857195</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -62775,13 +62775,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="72">
-        <v>54.456499999999998</v>
+        <v>54.45650000000002</v>
       </c>
       <c r="H43" s="72">
         <v>210</v>
       </c>
       <c r="I43" s="76">
-        <v>0.25931666666666664</v>
+        <v>0.25931666666666675</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -62804,13 +62804,13 @@
         <v>0</v>
       </c>
       <c r="G44" s="72">
-        <v>21.566500000000001</v>
+        <v>21.566499999999994</v>
       </c>
       <c r="H44" s="72">
         <v>70</v>
       </c>
       <c r="I44" s="76">
-        <v>0.30809285714285717</v>
+        <v>0.30809285714285706</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -62833,13 +62833,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="72">
-        <v>10.761500000000002</v>
+        <v>10.7615</v>
       </c>
       <c r="H45" s="72">
         <v>70</v>
       </c>
       <c r="I45" s="76">
-        <v>0.15373571428571431</v>
+        <v>0.15373571428571428</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -62862,13 +62862,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>189.34475000000003</v>
+        <v>189.34475000000009</v>
       </c>
       <c r="H46" s="72">
         <v>280</v>
       </c>
       <c r="I46" s="76">
-        <v>0.67623125000000017</v>
+        <v>0.67623125000000028</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -62891,13 +62891,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>111.85474999999995</v>
+        <v>111.85474999999997</v>
       </c>
       <c r="H47" s="72">
         <v>280</v>
       </c>
       <c r="I47" s="76">
-        <v>0.39948124999999984</v>
+        <v>0.3994812499999999</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -62920,13 +62920,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="72">
-        <v>51.99175000000001</v>
+        <v>51.991749999999996</v>
       </c>
       <c r="H48" s="72">
         <v>140</v>
       </c>
       <c r="I48" s="76">
-        <v>0.37136964285714291</v>
+        <v>0.37136964285714286</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -62949,13 +62949,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="72">
-        <v>54.577000000000005</v>
+        <v>54.577000000000012</v>
       </c>
       <c r="H49" s="72">
         <v>140</v>
       </c>
       <c r="I49" s="76">
-        <v>0.38983571428571434</v>
+        <v>0.3898357142857144</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -62978,13 +62978,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>100.90424999999998</v>
+        <v>100.90425</v>
       </c>
       <c r="H50" s="72">
         <v>140</v>
       </c>
       <c r="I50" s="76">
-        <v>0.72074464285714268</v>
+        <v>0.7207446428571429</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -63007,7 +63007,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>148.26750000000007</v>
+        <v>148.26750000000004</v>
       </c>
       <c r="H51" s="72">
         <v>140</v>
@@ -63036,13 +63036,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>271.38549999999992</v>
+        <v>271.38550000000026</v>
       </c>
       <c r="H52" s="72">
         <v>490</v>
       </c>
       <c r="I52" s="76">
-        <v>0.55384795918367336</v>
+        <v>0.55384795918367402</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -63065,13 +63065,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>404.37025000000011</v>
+        <v>404.37025000000006</v>
       </c>
       <c r="H53" s="72">
         <v>490</v>
       </c>
       <c r="I53" s="76">
-        <v>0.82524540816326553</v>
+        <v>0.82524540816326541</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -63123,13 +63123,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="72">
-        <v>45.25125000000002</v>
+        <v>45.251250000000006</v>
       </c>
       <c r="H55" s="72">
         <v>70</v>
       </c>
       <c r="I55" s="76">
-        <v>0.64644642857142887</v>
+        <v>0.64644642857142864</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -63181,13 +63181,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="72">
-        <v>61.506250000000016</v>
+        <v>61.506250000000001</v>
       </c>
       <c r="H57" s="72">
         <v>140</v>
       </c>
       <c r="I57" s="76">
-        <v>0.43933035714285723</v>
+        <v>0.43933035714285718</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -63268,7 +63268,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="72">
-        <v>52.231750000000012</v>
+        <v>52.231750000000005</v>
       </c>
       <c r="H60" s="72">
         <v>70</v>
@@ -63297,13 +63297,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="72">
-        <v>31.046750000000007</v>
+        <v>31.046750000000003</v>
       </c>
       <c r="H61" s="72">
         <v>70</v>
       </c>
       <c r="I61" s="76">
-        <v>0.44352500000000011</v>
+        <v>0.44352500000000006</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -63326,13 +63326,13 @@
         <v>0</v>
       </c>
       <c r="G62" s="72">
-        <v>23.6</v>
+        <v>23.599999999999994</v>
       </c>
       <c r="H62" s="72">
         <v>70</v>
       </c>
       <c r="I62" s="76">
-        <v>0.33714285714285719</v>
+        <v>0.33714285714285708</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -63355,13 +63355,13 @@
         <v>0</v>
       </c>
       <c r="G63" s="72">
-        <v>13.26275</v>
+        <v>13.262750000000004</v>
       </c>
       <c r="H63" s="72">
         <v>70</v>
       </c>
       <c r="I63" s="76">
-        <v>0.18946785714285716</v>
+        <v>0.18946785714285719</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -63384,13 +63384,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>157.12849999999989</v>
+        <v>157.12849999999997</v>
       </c>
       <c r="H64" s="72">
         <v>210</v>
       </c>
       <c r="I64" s="76">
-        <v>0.74823095238095183</v>
+        <v>0.74823095238095227</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -63413,13 +63413,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>95.3035</v>
+        <v>95.303500000000014</v>
       </c>
       <c r="H65" s="72">
         <v>210</v>
       </c>
       <c r="I65" s="76">
-        <v>0.45382619047619049</v>
+        <v>0.45382619047619055</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -63500,13 +63500,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="72">
-        <v>100.57525000000004</v>
+        <v>100.57525</v>
       </c>
       <c r="H68" s="72">
         <v>210</v>
       </c>
       <c r="I68" s="76">
-        <v>0.47892976190476211</v>
+        <v>0.47892976190476189</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -63529,13 +63529,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="72">
-        <v>130.92875000000009</v>
+        <v>130.92874999999998</v>
       </c>
       <c r="H69" s="72">
         <v>210</v>
       </c>
       <c r="I69" s="76">
-        <v>0.62347023809523849</v>
+        <v>0.62347023809523805</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -63558,13 +63558,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="72">
-        <v>197.32525000000007</v>
+        <v>197.32524999999995</v>
       </c>
       <c r="H70" s="72">
         <v>280</v>
       </c>
       <c r="I70" s="76">
-        <v>0.70473303571428592</v>
+        <v>0.70473303571428558</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -63587,13 +63587,13 @@
         <v>0</v>
       </c>
       <c r="G71" s="72">
-        <v>185.66075000000004</v>
+        <v>185.66074999999987</v>
       </c>
       <c r="H71" s="72">
         <v>280</v>
       </c>
       <c r="I71" s="76">
-        <v>0.66307410714285731</v>
+        <v>0.66307410714285664</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -63616,13 +63616,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="72">
-        <v>45.395250000000011</v>
+        <v>45.395250000000004</v>
       </c>
       <c r="H72" s="72">
         <v>140</v>
       </c>
       <c r="I72" s="76">
-        <v>0.32425178571428581</v>
+        <v>0.32425178571428576</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -63645,13 +63645,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="72">
-        <v>56.67799999999999</v>
+        <v>56.677999999999997</v>
       </c>
       <c r="H73" s="72">
         <v>140</v>
       </c>
       <c r="I73" s="76">
-        <v>0.40484285714285706</v>
+        <v>0.40484285714285712</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -63703,13 +63703,13 @@
         <v>0</v>
       </c>
       <c r="G75" s="72">
-        <v>29.970999999999997</v>
+        <v>29.971000000000004</v>
       </c>
       <c r="H75" s="72">
         <v>70</v>
       </c>
       <c r="I75" s="76">
-        <v>0.42815714285714279</v>
+        <v>0.4281571428571429</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -63790,13 +63790,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>67.514250000000018</v>
+        <v>67.51424999999999</v>
       </c>
       <c r="H78" s="72">
         <v>140</v>
       </c>
       <c r="I78" s="76">
-        <v>0.48224464285714297</v>
+        <v>0.4822446428571428</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -63819,13 +63819,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="72">
-        <v>38.58925</v>
+        <v>38.589249999999993</v>
       </c>
       <c r="H79" s="72">
         <v>140</v>
       </c>
       <c r="I79" s="76">
-        <v>0.27563749999999998</v>
+        <v>0.27563749999999992</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -63848,7 +63848,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="72">
-        <v>111.88175000000007</v>
+        <v>111.88175000000008</v>
       </c>
       <c r="H80" s="72">
         <v>140</v>
@@ -63877,13 +63877,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="72">
-        <v>63.076499999999996</v>
+        <v>63.076500000000017</v>
       </c>
       <c r="H81" s="72">
         <v>140</v>
       </c>
       <c r="I81" s="76">
-        <v>0.45054642857142851</v>
+        <v>0.45054642857142868</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -63906,13 +63906,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>167.2687500000001</v>
+        <v>167.26875000000004</v>
       </c>
       <c r="H82" s="72">
         <v>210</v>
       </c>
       <c r="I82" s="76">
-        <v>0.79651785714285761</v>
+        <v>0.79651785714285728</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -63964,13 +63964,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="72">
-        <v>168.25125000000006</v>
+        <v>168.25125000000003</v>
       </c>
       <c r="H84" s="72">
         <v>210</v>
       </c>
       <c r="I84" s="76">
-        <v>0.80119642857142881</v>
+        <v>0.8011964285714287</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -63993,13 +63993,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>40.552000000000007</v>
+        <v>40.552000000000014</v>
       </c>
       <c r="H85" s="72">
         <v>210</v>
       </c>
       <c r="I85" s="76">
-        <v>0.19310476190476195</v>
+        <v>0.19310476190476197</v>
       </c>
     </row>
   </sheetData>
